--- a/impactbasedtesting/results/results_TC1StartApplication.xlsx
+++ b/impactbasedtesting/results/results_TC1StartApplication.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M170"/>
+  <dimension ref="A1:L170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,65 +441,64 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>"Prototype"</t>
+          <t>"Multiple Conditions %"</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>"Multiple Conditions %"</t>
+          <t>"Manual Validations"</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>"Manual Validations"</t>
+          <t>Position</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>"File"</t>
+          <t>Prototype</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>"Absolute Path"</t>
+          <t>File</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>"Position"</t>
+          <t>Absolute Path</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>"Executed Instrumentations"</t>
+          <t>Executed Instrumentations</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>"Manually Validated Instrumentations"</t>
+          <t>Manually Validated Instrumentations</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>"Count of Instrumentations"</t>
+          <t>Count of Instrumentations</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>"eLOC - Effective Lines of Code"</t>
+          <t>eLOC - Effective Lines of Code</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>"McCabe - Cyclomatic Complexity"</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr"/>
+          <t>McCabe - Cyclomatic Complexity</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TextEdit::TextEdit,"TextEdit::TextEdit(QWidget *parent)"</t>
+          <t>TextEdit::TextEdit</t>
         </is>
       </c>
       <c r="B2">
@@ -509,46 +508,49 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>"textedit.cpp"</t>
+          <t>36-94</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>"C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp"</t>
+          <t>TextEdit::TextEdit(QWidget *parent)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>"36-94"</t>
+          <t>textedit.cpp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>39</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -556,29 +558,29 @@
           <t>TextEdit::about</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>"void TextEdit::about()"</t>
-        </is>
-      </c>
-      <c r="C3">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="B3">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>654-659</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>"textedit.cpp"</t>
+          <t>void TextEdit::about()</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>"C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp"</t>
+          <t>textedit.cpp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>"654-659"</t>
+          <t>C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -606,7 +608,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -614,29 +615,29 @@
           <t>TextEdit::alignmentChanged</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>"void TextEdit::alignmentChanged(Qt::Alignment a)"</t>
-        </is>
-      </c>
-      <c r="C4">
+      <c r="B4">
         <f>3/13</f>
         <v/>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>686-697</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>"textedit.cpp"</t>
+          <t>void TextEdit::alignmentChanged(Qt::Alignment a)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>"C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp"</t>
+          <t>textedit.cpp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>"686-697"</t>
+          <t>C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -664,7 +665,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -672,29 +672,29 @@
           <t>TextEdit::clipboardDataChanged</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>"void TextEdit::clipboardDataChanged()"</t>
-        </is>
-      </c>
-      <c r="C5">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="B5">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>647-652</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>"textedit.cpp"</t>
+          <t>void TextEdit::clipboardDataChanged()</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>"C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp"</t>
+          <t>textedit.cpp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>"647-652"</t>
+          <t>C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -722,12 +722,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TextEdit::closeEvent,"void TextEdit::closeEvent(QCloseEvent *e)"</t>
+          <t>TextEdit::closeEvent</t>
         </is>
       </c>
       <c r="B6">
@@ -737,46 +736,49 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>"textedit.cpp"</t>
+          <t>96-102</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>"C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp"</t>
+          <t>void TextEdit::closeEvent(QCloseEvent *e)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>"96-102"</t>
+          <t>textedit.cpp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -784,29 +786,29 @@
           <t>TextEdit::colorChanged</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>"void TextEdit::colorChanged(const QColor &amp;c)"</t>
-        </is>
-      </c>
-      <c r="C7">
+      <c r="B7">
         <f>1/1</f>
         <v/>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>679-684</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>"textedit.cpp"</t>
+          <t>void TextEdit::colorChanged(const QColor &amp;c)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>"C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp"</t>
+          <t>textedit.cpp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>"679-684"</t>
+          <t>C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -834,7 +836,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -842,29 +843,29 @@
           <t>TextEdit::currentCharFormatChanged</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>"void TextEdit::currentCharFormatChanged(const QTextCharFormat &amp;format)"</t>
-        </is>
-      </c>
-      <c r="C8">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="B8">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>636-640</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>"textedit.cpp"</t>
+          <t>void TextEdit::currentCharFormatChanged(const QTextCharFormat &amp;format)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>"C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp"</t>
+          <t>textedit.cpp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>"636-640"</t>
+          <t>C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -892,7 +893,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -900,29 +900,29 @@
           <t>TextEdit::cursorPositionChanged</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>"void TextEdit::cursorPositionChanged()"</t>
-        </is>
-      </c>
-      <c r="C9">
+      <c r="B9">
         <f>1/1</f>
         <v/>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>642-645</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>"textedit.cpp"</t>
+          <t>void TextEdit::cursorPositionChanged()</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>"C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp"</t>
+          <t>textedit.cpp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>"642-645"</t>
+          <t>C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -950,7 +950,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -958,29 +957,29 @@
           <t>TextEdit::fileNew</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>"void TextEdit::fileNew()"</t>
-        </is>
-      </c>
-      <c r="C10">
+      <c r="B10">
         <f>3/4</f>
         <v/>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>417-423</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>"textedit.cpp"</t>
+          <t>void TextEdit::fileNew()</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>"C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp"</t>
+          <t>textedit.cpp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>"417-423"</t>
+          <t>C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1008,7 +1007,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1016,29 +1014,29 @@
           <t>TextEdit::fileOpen</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>"void TextEdit::fileOpen()"</t>
-        </is>
-      </c>
-      <c r="C11">
+      <c r="B11">
         <f>0/4</f>
         <v/>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>425-431</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>"textedit.cpp"</t>
+          <t>void TextEdit::fileOpen()</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>"C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp"</t>
+          <t>textedit.cpp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>"425-431"</t>
+          <t>C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1066,7 +1064,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1074,29 +1071,29 @@
           <t>TextEdit::filePrint</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>"void TextEdit::filePrint()"</t>
-        </is>
-      </c>
-      <c r="C12">
+      <c r="B12">
         <f>0/7</f>
         <v/>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>461-474</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>"textedit.cpp"</t>
+          <t>void TextEdit::filePrint()</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>"C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp"</t>
+          <t>textedit.cpp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>"461-474"</t>
+          <t>C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1124,7 +1121,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1132,29 +1128,29 @@
           <t>TextEdit::filePrintPdf</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>"void TextEdit::filePrintPdf()"</t>
-        </is>
-      </c>
-      <c r="C13">
+      <c r="B13">
         <f>0/7</f>
         <v/>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>496-512</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>"textedit.cpp"</t>
+          <t>void TextEdit::filePrintPdf()</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>"C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp"</t>
+          <t>textedit.cpp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>"496-512"</t>
+          <t>C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1182,7 +1178,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1190,29 +1185,29 @@
           <t>TextEdit::filePrintPreview</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>"void TextEdit::filePrintPreview()"</t>
-        </is>
-      </c>
-      <c r="C14">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="B14">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>476-484</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>"textedit.cpp"</t>
+          <t>void TextEdit::filePrintPreview()</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>"C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp"</t>
+          <t>textedit.cpp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>"476-484"</t>
+          <t>C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1240,7 +1235,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1248,29 +1242,29 @@
           <t>TextEdit::fileSave</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>"bool TextEdit::fileSave()"</t>
-        </is>
-      </c>
-      <c r="C15">
+      <c r="B15">
         <f>0/7</f>
         <v/>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>433-447</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>"textedit.cpp"</t>
+          <t>bool TextEdit::fileSave()</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>"C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp"</t>
+          <t>textedit.cpp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>"433-447"</t>
+          <t>C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1298,7 +1292,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1306,29 +1299,29 @@
           <t>TextEdit::fileSaveAs</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>"bool TextEdit::fileSaveAs()"</t>
-        </is>
-      </c>
-      <c r="C16">
+      <c r="B16">
         <f>0/5</f>
         <v/>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>449-459</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>"textedit.cpp"</t>
+          <t>bool TextEdit::fileSaveAs()</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>"C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp"</t>
+          <t>textedit.cpp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>"449-459"</t>
+          <t>C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1356,7 +1349,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1364,29 +1356,29 @@
           <t>TextEdit::fontChanged</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>"void TextEdit::fontChanged(const QFont &amp;f)"</t>
-        </is>
-      </c>
-      <c r="C17">
+      <c r="B17">
         <f>1/1</f>
         <v/>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>670-677</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>"textedit.cpp"</t>
+          <t>void TextEdit::fontChanged(const QFont &amp;f)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>"C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp"</t>
+          <t>textedit.cpp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>"670-677"</t>
+          <t>C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1414,7 +1406,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1422,29 +1413,29 @@
           <t>TextEdit::load</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>"bool TextEdit::load(const QString &amp;f)"</t>
-        </is>
-      </c>
-      <c r="C18">
+      <c r="B18">
         <f>0/11</f>
         <v/>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>361-381</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>"textedit.cpp"</t>
+          <t>bool TextEdit::load(const QString &amp;f)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>"C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp"</t>
+          <t>textedit.cpp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>"361-381"</t>
+          <t>C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1472,7 +1463,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1480,29 +1470,29 @@
           <t>TextEdit::maybeSave</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>"bool TextEdit::maybeSave()"</t>
-        </is>
-      </c>
-      <c r="C19">
+      <c r="B19">
         <f>2/13</f>
         <v/>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>383-400</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>"textedit.cpp"</t>
+          <t>bool TextEdit::maybeSave()</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>"C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp"</t>
+          <t>textedit.cpp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>"383-400"</t>
+          <t>C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1530,7 +1520,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1538,29 +1527,29 @@
           <t>TextEdit::mergeFormatOnWordOrSelection</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>"void TextEdit::mergeFormatOnWordOrSelection(const QTextCharFormat &amp;format)"</t>
-        </is>
-      </c>
-      <c r="C20">
+      <c r="B20">
         <f>0/4</f>
         <v/>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>661-668</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>"textedit.cpp"</t>
+          <t>void TextEdit::mergeFormatOnWordOrSelection(const QTextCharFormat &amp;format)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>"C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp"</t>
+          <t>textedit.cpp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>"661-668"</t>
+          <t>C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1588,12 +1577,11 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>TextEdit::printPreview,"void TextEdit::printPreview(QPrinter *printer)"</t>
+          <t>TextEdit::printPreview</t>
         </is>
       </c>
       <c r="B21">
@@ -1603,22 +1591,22 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>"textedit.cpp"</t>
+          <t>486-493</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>"C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp"</t>
+          <t>void TextEdit::printPreview(QPrinter *printer)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>"486-493"</t>
+          <t>textedit.cpp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1628,7 +1616,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1641,8 +1629,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1650,29 +1641,29 @@
           <t>TextEdit::setCurrentFileName</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>"void TextEdit::setCurrentFileName(const QString &amp;fileName)"</t>
-        </is>
-      </c>
-      <c r="C22">
+      <c r="B22">
         <f>3/5</f>
         <v/>
       </c>
-      <c r="D22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>402-415</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>"textedit.cpp"</t>
+          <t>void TextEdit::setCurrentFileName(const QString &amp;fileName)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>"C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp"</t>
+          <t>textedit.cpp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>"402-415"</t>
+          <t>C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1700,7 +1691,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1708,29 +1698,29 @@
           <t>TextEdit::setupEditActions</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>"void TextEdit::setupEditActions()"</t>
-        </is>
-      </c>
-      <c r="C23">
+      <c r="B23">
         <f>1/1</f>
         <v/>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>177-219</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>"textedit.cpp"</t>
+          <t>void TextEdit::setupEditActions()</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>"C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp"</t>
+          <t>textedit.cpp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>"177-219"</t>
+          <t>C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1758,7 +1748,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1766,29 +1755,29 @@
           <t>TextEdit::setupFileActions</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>"void TextEdit::setupFileActions()"</t>
-        </is>
-      </c>
-      <c r="C24">
+      <c r="B24">
         <f>1/1</f>
         <v/>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>104-175</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>"textedit.cpp"</t>
+          <t>void TextEdit::setupFileActions()</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>"C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp"</t>
+          <t>textedit.cpp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>"104-175"</t>
+          <t>C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1816,7 +1805,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1824,29 +1812,29 @@
           <t>TextEdit::setupTextActions</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>"void TextEdit::setupTextActions()"</t>
-        </is>
-      </c>
-      <c r="C25">
+      <c r="B25">
         <f>6/8</f>
         <v/>
       </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>221-359</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>"textedit.cpp"</t>
+          <t>void TextEdit::setupTextActions()</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>"C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp"</t>
+          <t>textedit.cpp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>"221-359"</t>
+          <t>C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1874,12 +1862,11 @@
           <t>3</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>TextEdit::textAlign,"void TextEdit::textAlign(QAction *a)"</t>
+          <t>TextEdit::textAlign</t>
         </is>
       </c>
       <c r="B26">
@@ -1889,22 +1876,22 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>"textedit.cpp"</t>
+          <t>624-634</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>"C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp"</t>
+          <t>void TextEdit::textAlign(QAction *a)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>"624-634"</t>
+          <t>textedit.cpp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1914,21 +1901,24 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1936,29 +1926,29 @@
           <t>TextEdit::textBold</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>"void TextEdit::textBold()"</t>
-        </is>
-      </c>
-      <c r="C27">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D27" t="inlineStr"/>
+      <c r="B27">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>514-519</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>"textedit.cpp"</t>
+          <t>void TextEdit::textBold()</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>"C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp"</t>
+          <t>textedit.cpp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>"514-519"</t>
+          <t>C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1986,7 +1976,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1994,29 +1983,29 @@
           <t>TextEdit::textColor</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>"void TextEdit::textColor()"</t>
-        </is>
-      </c>
-      <c r="C28">
+      <c r="B28">
         <f>0/4</f>
         <v/>
       </c>
-      <c r="D28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>613-622</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>"textedit.cpp"</t>
+          <t>void TextEdit::textColor()</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>"C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp"</t>
+          <t>textedit.cpp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>"613-622"</t>
+          <t>C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2044,7 +2033,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2052,29 +2040,29 @@
           <t>TextEdit::textFamily</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>"void TextEdit::textFamily(const QStringList &amp;f)"</t>
-        </is>
-      </c>
-      <c r="C29">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D29" t="inlineStr"/>
+      <c r="B29">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>535-540</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>"textedit.cpp"</t>
+          <t>void TextEdit::textFamily(const QStringList &amp;f)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>"C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp"</t>
+          <t>textedit.cpp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>"535-540"</t>
+          <t>C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2102,7 +2090,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2110,29 +2097,29 @@
           <t>TextEdit::textItalic</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>"void TextEdit::textItalic()"</t>
-        </is>
-      </c>
-      <c r="C30">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D30" t="inlineStr"/>
+      <c r="B30">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>528-533</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>"textedit.cpp"</t>
+          <t>void TextEdit::textItalic()</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>"C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp"</t>
+          <t>textedit.cpp</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>"528-533"</t>
+          <t>C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2160,7 +2147,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2168,29 +2154,29 @@
           <t>TextEdit::textSize</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>"void TextEdit::textSize(const QString &amp;p)"</t>
-        </is>
-      </c>
-      <c r="C31">
+      <c r="B31">
         <f>0/4</f>
         <v/>
       </c>
-      <c r="D31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>542-550</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>"textedit.cpp"</t>
+          <t>void TextEdit::textSize(const QString &amp;p)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>"C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp"</t>
+          <t>textedit.cpp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>"542-550"</t>
+          <t>C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2218,7 +2204,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2226,29 +2211,29 @@
           <t>TextEdit::textStyle</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>"void TextEdit::textStyle(int styleIndex)"</t>
-        </is>
-      </c>
-      <c r="C32">
+      <c r="B32">
         <f>0/25</f>
         <v/>
       </c>
-      <c r="D32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>552-611</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>"textedit.cpp"</t>
+          <t>void TextEdit::textStyle(int styleIndex)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>"C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp"</t>
+          <t>textedit.cpp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>"552-611"</t>
+          <t>C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2276,7 +2261,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2284,29 +2268,29 @@
           <t>TextEdit::textUnderline</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>"void TextEdit::textUnderline()"</t>
-        </is>
-      </c>
-      <c r="C33">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D33" t="inlineStr"/>
+      <c r="B33">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>521-526</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>"textedit.cpp"</t>
+          <t>void TextEdit::textUnderline()</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>"C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp"</t>
+          <t>textedit.cpp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>"521-526"</t>
+          <t>C:\CocoImpactBased\new\textedit\textedit_v1\textedit.cpp</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2334,7 +2318,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2342,29 +2325,29 @@
           <t>_Exit</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>"inline __attribute__ ((__noreturn__)) void __attribute__((__cdecl__)) _Exit(int status)"</t>
-        </is>
-      </c>
-      <c r="C34">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D34" t="inlineStr"/>
+      <c r="B34">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>398-399</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>"stdlib.h"</t>
+          <t>inline __attribute__ ((__noreturn__)) void __attribute__((__cdecl__)) _Exit(int status)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdlib.h"</t>
+          <t>stdlib.h</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>"398-399"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdlib.h</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2392,37 +2375,36 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>_MarkAllocaS,"static __inline void *_MarkAllocaS(void *_Ptr</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>unsigned int _Marker)"</t>
-        </is>
-      </c>
-      <c r="C35">
+          <t>_MarkAllocaS</t>
+        </is>
+      </c>
+      <c r="B35">
         <f>0/4</f>
         <v/>
       </c>
-      <c r="D35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>120-126</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>"malloc.h"</t>
+          <t>static __inline void *_MarkAllocaS(void *_Ptr,unsigned int _Marker)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\malloc.h"</t>
+          <t>malloc.h</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>"120-126"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\malloc.h</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2450,7 +2432,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2458,34 +2439,34 @@
           <t>__debugbreak</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>"__inline__ __attribute__((__always_inline__</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>__gnu_inline__)) void __attribute__((__cdecl__)) __debugbreak(void)"</t>
-        </is>
-      </c>
-      <c r="D36">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="B36">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>585-596</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>__inline__ __attribute__((__always_inline__,__gnu_inline__)) void __attribute__((__cdecl__)) __debugbreak(void)</t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>"_mingw.h"</t>
+          <t>_mingw.h</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\_mingw.h"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\_mingw.h</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>"585-596"</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2495,7 +2476,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2504,11 +2485,6 @@
         </is>
       </c>
       <c r="L36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -2520,29 +2496,29 @@
           <t>__fpclassify</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>"inline int __attribute__((__cdecl__)) __fpclassify (double x)"</t>
-        </is>
-      </c>
-      <c r="C37">
+      <c r="B37">
         <f>0/12</f>
         <v/>
       </c>
-      <c r="D37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>433-454</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>"math.h"</t>
+          <t>inline int __attribute__((__cdecl__)) __fpclassify (double x)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\math.h"</t>
+          <t>math.h</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>"433-454"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\math.h</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2570,7 +2546,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2578,29 +2553,29 @@
           <t>__fpclassifyf</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>"inline int __attribute__((__cdecl__)) __fpclassifyf (float x)"</t>
-        </is>
-      </c>
-      <c r="C38">
+      <c r="B38">
         <f>0/12</f>
         <v/>
       </c>
-      <c r="D38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>455-473</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>"math.h"</t>
+          <t>inline int __attribute__((__cdecl__)) __fpclassifyf (float x)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\math.h"</t>
+          <t>math.h</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>"455-473"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\math.h</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2628,7 +2603,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2636,29 +2610,29 @@
           <t>__fpclassifyl</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>"inline int __attribute__((__cdecl__)) __fpclassifyl (long double x)"</t>
-        </is>
-      </c>
-      <c r="C39">
+      <c r="B39">
         <f>0/15</f>
         <v/>
       </c>
-      <c r="D39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>407-432</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>"math.h"</t>
+          <t>inline int __attribute__((__cdecl__)) __fpclassifyl (long double x)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\math.h"</t>
+          <t>math.h</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>"407-432"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\math.h</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2686,7 +2660,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2694,29 +2667,29 @@
           <t>__isnan</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>"inline int __attribute__((__cdecl__)) __isnan (double _x)"</t>
-        </is>
-      </c>
-      <c r="C40">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D40" t="inlineStr"/>
+      <c r="B40">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>520-539</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>"math.h"</t>
+          <t>inline int __attribute__((__cdecl__)) __isnan (double _x)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\math.h"</t>
+          <t>math.h</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>"520-539"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\math.h</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2744,7 +2717,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2752,29 +2724,29 @@
           <t>__isnanf</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>"inline int __attribute__((__cdecl__)) __isnanf (float _x)"</t>
-        </is>
-      </c>
-      <c r="C41">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D41" t="inlineStr"/>
+      <c r="B41">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>541-558</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>"math.h"</t>
+          <t>inline int __attribute__((__cdecl__)) __isnanf (float _x)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\math.h"</t>
+          <t>math.h</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>"541-558"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\math.h</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2802,7 +2774,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2810,29 +2781,29 @@
           <t>__isnanl</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>"inline int __attribute__((__cdecl__)) __isnanl (long double _x)"</t>
-        </is>
-      </c>
-      <c r="C42">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D42" t="inlineStr"/>
+      <c r="B42">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>560-581</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>"math.h"</t>
+          <t>inline int __attribute__((__cdecl__)) __isnanl (long double _x)</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\math.h"</t>
+          <t>math.h</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>"560-581"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\math.h</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2860,7 +2831,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2868,29 +2838,29 @@
           <t>__signbit</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>"inline int __attribute__((__cdecl__)) __signbit (double x)"</t>
-        </is>
-      </c>
-      <c r="C43">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D43" t="inlineStr"/>
+      <c r="B43">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>606-617</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>"math.h"</t>
+          <t>inline int __attribute__((__cdecl__)) __signbit (double x)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\math.h"</t>
+          <t>math.h</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>"606-617"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\math.h</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2918,7 +2888,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2926,29 +2895,29 @@
           <t>__signbitf</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>"inline int __attribute__((__cdecl__)) __signbitf (float x)"</t>
-        </is>
-      </c>
-      <c r="C44">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D44" t="inlineStr"/>
+      <c r="B44">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>619-629</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>"math.h"</t>
+          <t>inline int __attribute__((__cdecl__)) __signbitf (float x)</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\math.h"</t>
+          <t>math.h</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>"619-629"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\math.h</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2976,7 +2945,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2984,29 +2952,29 @@
           <t>__signbitl</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>"inline int __attribute__((__cdecl__)) __signbitl (long double x)"</t>
-        </is>
-      </c>
-      <c r="C45">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D45" t="inlineStr"/>
+      <c r="B45">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>631-643</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>"math.h"</t>
+          <t>inline int __attribute__((__cdecl__)) __signbitl (long double x)</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\math.h"</t>
+          <t>math.h</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>"631-643"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\math.h</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3034,7 +3002,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3042,34 +3009,34 @@
           <t>_abs64</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>"__inline__ __attribute__((__always_inline__</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>__gnu_inline__)) long long __attribute__((__cdecl__)) _abs64(long long x)"</t>
-        </is>
-      </c>
-      <c r="D46">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="E46" t="inlineStr"/>
+      <c r="B46">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>420-422</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>__inline__ __attribute__((__always_inline__,__gnu_inline__)) long long __attribute__((__cdecl__)) _abs64(long long x)</t>
+        </is>
+      </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>"stdlib.h"</t>
+          <t>stdlib.h</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdlib.h"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdlib.h</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>"420-422"</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3079,7 +3046,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3088,11 +3055,6 @@
         </is>
       </c>
       <c r="L46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -3101,7 +3063,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>_freea,"static __inline void __attribute__((__cdecl__)) _freea(void *_Memory)"</t>
+          <t>_freea</t>
         </is>
       </c>
       <c r="B47">
@@ -3111,22 +3073,22 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>"malloc.h"</t>
+          <t>139-153</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\malloc.h"</t>
+          <t>static __inline void __attribute__((__cdecl__)) _freea(void *_Memory)</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>"139-153"</t>
+          <t>malloc.h</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\malloc.h</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -3136,26 +3098,29 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="L47" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>_getws_s,"template &lt;size_t __size&gt; inline wchar_t* __attribute__((__cdecl__)) _getws_s(wchar_t (&amp;_DstBuf)[__size])"</t>
+          <t>_getws_s</t>
         </is>
       </c>
       <c r="B48">
@@ -3165,22 +3130,22 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>"wchar_s.h"</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\wchar_s.h"</t>
+          <t>template &lt;size_t __size&gt; inline wchar_t* __attribute__((__cdecl__)) _getws_s(wchar_t (&amp;_DstBuf)[__size])</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>wchar_s.h</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\wchar_s.h</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -3190,7 +3155,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3203,38 +3168,41 @@
           <t>1</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>_itoa_s,"template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) _itoa_s(int _Value, char (&amp;_Dest)[__size]</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> int _Radix)"</t>
-        </is>
-      </c>
-      <c r="C49">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D49" t="inlineStr"/>
+          <t>_itoa_s</t>
+        </is>
+      </c>
+      <c r="B49">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>"stdlib_s.h"</t>
+          <t>template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) _itoa_s(int _Value, char (&amp;_Dest)[__size], int _Radix)</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\stdlib_s.h"</t>
+          <t>stdlib_s.h</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\stdlib_s.h</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -3262,37 +3230,36 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>_itow_s,"template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) _itow_s(int _Val, wchar_t (&amp;_DstBuf)[__size]</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> int _Radix)"</t>
-        </is>
-      </c>
-      <c r="C50">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D50" t="inlineStr"/>
+          <t>_itow_s</t>
+        </is>
+      </c>
+      <c r="B50">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>"corecrt_wstdlib.h"</t>
+          <t>template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) _itow_s(int _Val, wchar_t (&amp;_DstBuf)[__size], int _Radix)</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\corecrt_wstdlib.h"</t>
+          <t>corecrt_wstdlib.h</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\corecrt_wstdlib.h</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -3320,37 +3287,36 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>_ltoa_s,"template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) _ltoa_s(long _Value, char (&amp;_Dest)[__size]</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> int _Radix)"</t>
-        </is>
-      </c>
-      <c r="C51">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D51" t="inlineStr"/>
+          <t>_ltoa_s</t>
+        </is>
+      </c>
+      <c r="B51">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>"stdlib_s.h"</t>
+          <t>template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) _ltoa_s(long _Value, char (&amp;_Dest)[__size], int _Radix)</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\stdlib_s.h"</t>
+          <t>stdlib_s.h</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\stdlib_s.h</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -3378,37 +3344,36 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>_ltow_s,"template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) _ltow_s(long _Val, wchar_t (&amp;_DstBuf)[__size]</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> int _Radix)"</t>
-        </is>
-      </c>
-      <c r="C52">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D52" t="inlineStr"/>
+          <t>_ltow_s</t>
+        </is>
+      </c>
+      <c r="B52">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>"corecrt_wstdlib.h"</t>
+          <t>template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) _ltow_s(long _Val, wchar_t (&amp;_DstBuf)[__size], int _Radix)</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\corecrt_wstdlib.h"</t>
+          <t>corecrt_wstdlib.h</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\corecrt_wstdlib.h</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -3436,42 +3401,41 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>_mbstowcs_s_l,"template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) _mbstowcs_s_l(size_t * _PtNumOfCharConverted, wchar_t (&amp;_Dest)[__size], const char * _Source</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> size_t _MaxCount</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> _locale_t _Locale)"</t>
-        </is>
-      </c>
-      <c r="D53">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="E53" t="inlineStr"/>
+          <t>_mbstowcs_s_l</t>
+        </is>
+      </c>
+      <c r="B53">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) _mbstowcs_s_l(size_t * _PtNumOfCharConverted, wchar_t (&amp;_Dest)[__size], const char * _Source, size_t _MaxCount, _locale_t _Locale)</t>
+        </is>
+      </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>"stdlib_s.h"</t>
+          <t>stdlib_s.h</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\stdlib_s.h"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\stdlib_s.h</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3481,7 +3445,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3490,11 +3454,6 @@
         </is>
       </c>
       <c r="L53" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -3503,7 +3462,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>_mkgmtime,"static __inline time_t __attribute__((__cdecl__)) _mkgmtime(struct tm *_Tm)"</t>
+          <t>_mkgmtime</t>
         </is>
       </c>
       <c r="B54">
@@ -3513,22 +3472,22 @@
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>"time.h"</t>
+          <t>239</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\time.h"</t>
+          <t>static __inline time_t __attribute__((__cdecl__)) _mkgmtime(struct tm *_Tm)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>time.h</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\time.h</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -3538,7 +3497,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3551,38 +3510,41 @@
           <t>1</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>_snprintf_s,"template &lt;size_t __size&gt; inline int __attribute__((__cdecl__)) _snprintf_s(char (&amp;_DstBuf)[__size], size_t _MaxCount, const char* _Format</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ...)"</t>
-        </is>
-      </c>
-      <c r="C55">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D55" t="inlineStr"/>
+          <t>_snprintf_s</t>
+        </is>
+      </c>
+      <c r="B55">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>566</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>"stdio_s.h"</t>
+          <t>template &lt;size_t __size&gt; inline int __attribute__((__cdecl__)) _snprintf_s(char (&amp;_DstBuf)[__size], size_t _MaxCount, const char* _Format, ...)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\stdio_s.h"</t>
+          <t>stdio_s.h</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\stdio_s.h</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3610,37 +3572,36 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>_snwprintf_s,"template &lt;size_t __size&gt; inline int __attribute__((__cdecl__)) _snwprintf_s(wchar_t (&amp;_DstBuf)[__size], size_t _MaxCount, const wchar_t* _Format</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ...)"</t>
-        </is>
-      </c>
-      <c r="C56">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D56" t="inlineStr"/>
+          <t>_snwprintf_s</t>
+        </is>
+      </c>
+      <c r="B56">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>"wchar_s.h"</t>
+          <t>template &lt;size_t __size&gt; inline int __attribute__((__cdecl__)) _snwprintf_s(wchar_t (&amp;_DstBuf)[__size], size_t _MaxCount, const wchar_t* _Format, ...)</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\wchar_s.h"</t>
+          <t>wchar_s.h</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\wchar_s.h</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3668,12 +3629,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>_splitpath_s,"template &lt;size_t __drive_size, size_t __dir_size, size_t __name_size, size_t __ext_size&gt; inline errno_t __attribute__((__cdecl__)) _splitpath_s(const char *_Dest, char (&amp;__drive)[__drive_size], char (&amp;__dir)[__dir_size], char (&amp;__name)[__name_size], char (&amp;__ext)[__ext_size])"</t>
+          <t>_splitpath_s</t>
         </is>
       </c>
       <c r="B57">
@@ -3683,22 +3643,22 @@
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>"stdlib_s.h"</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\stdlib_s.h"</t>
+          <t>template &lt;size_t __drive_size, size_t __dir_size, size_t __name_size, size_t __ext_size&gt; inline errno_t __attribute__((__cdecl__)) _splitpath_s(const char *_Dest, char (&amp;__drive)[__drive_size], char (&amp;__dir)[__dir_size], char (&amp;__name)[__name_size], char (&amp;__ext)[__ext_size])</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>stdlib_s.h</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\stdlib_s.h</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3708,7 +3668,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3721,43 +3681,46 @@
           <t>1</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>_strncpy_s_l,"template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) _strncpy_s_l(char (&amp;_Dest)[__size], const char * _Source</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> size_t _MaxCount</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> _locale_t _Locale)"</t>
-        </is>
-      </c>
-      <c r="D58">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="E58" t="inlineStr"/>
+          <t>_strncpy_s_l</t>
+        </is>
+      </c>
+      <c r="B58">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) _strncpy_s_l(char (&amp;_Dest)[__size], const char * _Source, size_t _MaxCount, _locale_t _Locale)</t>
+        </is>
+      </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>"string_s.h"</t>
+          <t>string_s.h</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\string_s.h"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\string_s.h</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3767,7 +3730,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3776,11 +3739,6 @@
         </is>
       </c>
       <c r="L58" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -3789,32 +3747,32 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>_ultoa_s,"template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) _ultoa_s(unsigned long _Value, char (&amp;_Dest)[__size]</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> int _Radix)"</t>
-        </is>
-      </c>
-      <c r="C59">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D59" t="inlineStr"/>
+          <t>_ultoa_s</t>
+        </is>
+      </c>
+      <c r="B59">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>"stdlib_s.h"</t>
+          <t>template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) _ultoa_s(unsigned long _Value, char (&amp;_Dest)[__size], int _Radix)</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\stdlib_s.h"</t>
+          <t>stdlib_s.h</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\stdlib_s.h</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3842,37 +3800,36 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>_ultow_s,"template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) _ultow_s(unsigned long _Val, wchar_t (&amp;_DstBuf)[__size]</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> int _Radix)"</t>
-        </is>
-      </c>
-      <c r="C60">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D60" t="inlineStr"/>
+          <t>_ultow_s</t>
+        </is>
+      </c>
+      <c r="B60">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>"corecrt_wstdlib.h"</t>
+          <t>template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) _ultow_s(unsigned long _Val, wchar_t (&amp;_DstBuf)[__size], int _Radix)</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\corecrt_wstdlib.h"</t>
+          <t>corecrt_wstdlib.h</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\corecrt_wstdlib.h</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3900,37 +3857,36 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>_vsnprintf_s,"template &lt;size_t __size&gt; inline int __attribute__((__cdecl__)) _vsnprintf_s(char (&amp;_DstBuf)[__size], size_t _MaxCount, const char* _Format</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> va_list _ArgList)"</t>
-        </is>
-      </c>
-      <c r="C61">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D61" t="inlineStr"/>
+          <t>_vsnprintf_s</t>
+        </is>
+      </c>
+      <c r="B61">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>563</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>"stdio_s.h"</t>
+          <t>template &lt;size_t __size&gt; inline int __attribute__((__cdecl__)) _vsnprintf_s(char (&amp;_DstBuf)[__size], size_t _MaxCount, const char* _Format, va_list _ArgList)</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\stdio_s.h"</t>
+          <t>stdio_s.h</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\stdio_s.h</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3958,37 +3914,36 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>_vsnwprintf_s,"template &lt;size_t __size&gt; inline int __attribute__((__cdecl__)) _vsnwprintf_s(wchar_t (&amp;_DstBuf)[__size], size_t _MaxCount, const wchar_t* _Format</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> va_list _ArgList)"</t>
-        </is>
-      </c>
-      <c r="C62">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D62" t="inlineStr"/>
+          <t>_vsnwprintf_s</t>
+        </is>
+      </c>
+      <c r="B62">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>"wchar_s.h"</t>
+          <t>template &lt;size_t __size&gt; inline int __attribute__((__cdecl__)) _vsnwprintf_s(wchar_t (&amp;_DstBuf)[__size], size_t _MaxCount, const wchar_t* _Format, va_list _ArgList)</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\wchar_s.h"</t>
+          <t>wchar_s.h</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\wchar_s.h</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -4016,12 +3971,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>_wcslwr_s,"template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) _wcslwr_s(wchar_t (&amp;_Str)[__size])"</t>
+          <t>_wcslwr_s</t>
         </is>
       </c>
       <c r="B63">
@@ -4031,22 +3985,22 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>"wchar_s.h"</t>
+          <t>301</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\wchar_s.h"</t>
+          <t>template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) _wcslwr_s(wchar_t (&amp;_Str)[__size])</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>wchar_s.h</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\wchar_s.h</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -4056,7 +4010,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -4069,38 +4023,41 @@
           <t>1</t>
         </is>
       </c>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>_wcslwr_s_l,"template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) _wcslwr_s_l(wchar_t (&amp;_Str)[__size]</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> _locale_t _Locale)"</t>
-        </is>
-      </c>
-      <c r="C64">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D64" t="inlineStr"/>
+          <t>_wcslwr_s_l</t>
+        </is>
+      </c>
+      <c r="B64">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>"wchar_s.h"</t>
+          <t>template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) _wcslwr_s_l(wchar_t (&amp;_Str)[__size], _locale_t _Locale)</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\wchar_s.h"</t>
+          <t>wchar_s.h</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\wchar_s.h</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -4128,42 +4085,41 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>_wcstombs_s_l,"template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) _wcstombs_s_l(size_t* _PtNumOfCharConverted, char (&amp;_Dst)[__size], const wchar_t* _Src</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> size_t _MaxCountInBytes</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> _locale_t _Locale)"</t>
-        </is>
-      </c>
-      <c r="D65">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="E65" t="inlineStr"/>
+          <t>_wcstombs_s_l</t>
+        </is>
+      </c>
+      <c r="B65">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) _wcstombs_s_l(size_t* _PtNumOfCharConverted, char (&amp;_Dst)[__size], const wchar_t* _Src, size_t _MaxCountInBytes, _locale_t _Locale)</t>
+        </is>
+      </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>"stdlib_s.h"</t>
+          <t>stdlib_s.h</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\stdlib_s.h"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\stdlib_s.h</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4173,7 +4129,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4182,11 +4138,6 @@
         </is>
       </c>
       <c r="L65" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -4195,7 +4146,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>_wcsupr_s,"template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) _wcsupr_s(wchar_t (&amp;_Str)[__size])"</t>
+          <t>_wcsupr_s</t>
         </is>
       </c>
       <c r="B66">
@@ -4205,22 +4156,22 @@
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>"wchar_s.h"</t>
+          <t>305</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\wchar_s.h"</t>
+          <t>template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) _wcsupr_s(wchar_t (&amp;_Str)[__size])</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>wchar_s.h</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\wchar_s.h</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -4230,7 +4181,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -4243,38 +4194,41 @@
           <t>1</t>
         </is>
       </c>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>_wcsupr_s_l,"template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) _wcsupr_s_l(wchar_t (&amp;_Str)[__size]</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> _locale_t _Locale)"</t>
-        </is>
-      </c>
-      <c r="C67">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D67" t="inlineStr"/>
+          <t>_wcsupr_s_l</t>
+        </is>
+      </c>
+      <c r="B67">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>"wchar_s.h"</t>
+          <t>template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) _wcsupr_s_l(wchar_t (&amp;_Str)[__size], _locale_t _Locale)</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\wchar_s.h"</t>
+          <t>wchar_s.h</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\wchar_s.h</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -4302,12 +4256,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>_wctime,"inline wchar_t *__attribute__((__cdecl__)) _wctime(const time_t *_Time)"</t>
+          <t>_wctime</t>
         </is>
       </c>
       <c r="B68">
@@ -4317,22 +4270,22 @@
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
-          <t>"wchar.h"</t>
+          <t>1417</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\wchar.h"</t>
+          <t>inline wchar_t *__attribute__((__cdecl__)) _wctime(const time_t *_Time)</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>1417</t>
+          <t>wchar.h</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\wchar.h</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -4342,7 +4295,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -4355,13 +4308,16 @@
           <t>1</t>
         </is>
       </c>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>_wctime_s,"inline errno_t __attribute__((__cdecl__)) _wctime_s (wchar_t *_Buffer,size_t _SizeInWords,const time_t *_Time)"</t>
+          <t>_wctime_s</t>
         </is>
       </c>
       <c r="B69">
@@ -4371,22 +4327,22 @@
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>"wchar.h"</t>
+          <t>1429</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\wchar.h"</t>
+          <t>inline errno_t __attribute__((__cdecl__)) _wctime_s (wchar_t *_Buffer,size_t _SizeInWords,const time_t *_Time)</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>1429</t>
+          <t>wchar.h</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\wchar.h</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -4396,7 +4352,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -4409,13 +4365,16 @@
           <t>1</t>
         </is>
       </c>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>_wgetenv_s,"template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) _wgetenv_s(size_t* _ReturnSize, wchar_t (&amp;_DstBuf)[__size], const wchar_t* _VarName)"</t>
+          <t>_wgetenv_s</t>
         </is>
       </c>
       <c r="B70">
@@ -4425,22 +4384,22 @@
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>"corecrt_wstdlib.h"</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\corecrt_wstdlib.h"</t>
+          <t>template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) _wgetenv_s(size_t* _ReturnSize, wchar_t (&amp;_DstBuf)[__size], const wchar_t* _VarName)</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>corecrt_wstdlib.h</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\corecrt_wstdlib.h</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -4450,7 +4409,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -4463,13 +4422,16 @@
           <t>1</t>
         </is>
       </c>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>_wmakepath_s,"template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) _wmakepath_s(wchar_t (&amp;_PathResult)[__size], const wchar_t* _Drive, const wchar_t* _Dir, const wchar_t* _Filename, const wchar_t* _Ext)"</t>
+          <t>_wmakepath_s</t>
         </is>
       </c>
       <c r="B71">
@@ -4479,22 +4441,22 @@
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>"corecrt_wstdlib.h"</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\corecrt_wstdlib.h"</t>
+          <t>template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) _wmakepath_s(wchar_t (&amp;_PathResult)[__size], const wchar_t* _Drive, const wchar_t* _Dir, const wchar_t* _Filename, const wchar_t* _Ext)</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>corecrt_wstdlib.h</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\corecrt_wstdlib.h</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -4504,7 +4466,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -4517,13 +4479,16 @@
           <t>1</t>
         </is>
       </c>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>_wsearchenv_s,"template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) _wsearchenv_s(const wchar_t* _Filename, const wchar_t* _EnvVar, wchar_t (&amp;_ResultPath)[__size])"</t>
+          <t>_wsearchenv_s</t>
         </is>
       </c>
       <c r="B72">
@@ -4533,22 +4498,22 @@
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>"corecrt_wstdlib.h"</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\corecrt_wstdlib.h"</t>
+          <t>template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) _wsearchenv_s(const wchar_t* _Filename, const wchar_t* _EnvVar, wchar_t (&amp;_ResultPath)[__size])</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>corecrt_wstdlib.h</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\corecrt_wstdlib.h</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -4558,7 +4523,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -4571,13 +4536,16 @@
           <t>1</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>_wsplitpath_s,"template &lt;size_t __drive_size, size_t __dir_size, size_t __name_size, size_t __ext_size&gt; inline errno_t __attribute__((__cdecl__)) _wsplitpath_s(const wchar_t *_Dest, wchar_t (&amp;__drive)[__drive_size], wchar_t (&amp;__dir)[__dir_size], wchar_t (&amp;__name)[__name_size], wchar_t (&amp;__ext)[__ext_size])"</t>
+          <t>_wsplitpath_s</t>
         </is>
       </c>
       <c r="B73">
@@ -4587,22 +4555,22 @@
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>"corecrt_wstdlib.h"</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\corecrt_wstdlib.h"</t>
+          <t>template &lt;size_t __drive_size, size_t __dir_size, size_t __name_size, size_t __ext_size&gt; inline errno_t __attribute__((__cdecl__)) _wsplitpath_s(const wchar_t *_Dest, wchar_t (&amp;__drive)[__drive_size], wchar_t (&amp;__dir)[__dir_size], wchar_t (&amp;__name)[__name_size], wchar_t (&amp;__ext)[__ext_size])</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>corecrt_wstdlib.h</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\corecrt_wstdlib.h</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -4612,7 +4580,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -4625,13 +4593,16 @@
           <t>1</t>
         </is>
       </c>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>_wtmpnam_s,"template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) _wtmpnam_s(wchar_t (&amp;_DstBuf)[__size])"</t>
+          <t>_wtmpnam_s</t>
         </is>
       </c>
       <c r="B74">
@@ -4641,22 +4612,22 @@
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
-          <t>"wchar_s.h"</t>
+          <t>290</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\wchar_s.h"</t>
+          <t>template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) _wtmpnam_s(wchar_t (&amp;_DstBuf)[__size])</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>wchar_s.h</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\wchar_s.h</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -4666,7 +4637,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -4679,13 +4650,16 @@
           <t>1</t>
         </is>
       </c>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>atoll,"__extension__ inline long long __attribute__((__cdecl__)) atoll (const char * _c)"</t>
+          <t>atoll</t>
         </is>
       </c>
       <c r="B75">
@@ -4695,22 +4669,22 @@
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>"stdlib.h"</t>
+          <t>748</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdlib.h"</t>
+          <t>__extension__ inline long long __attribute__((__cdecl__)) atoll (const char * _c)</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>748</t>
+          <t>stdlib.h</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdlib.h</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -4720,7 +4694,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -4733,8 +4707,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4742,34 +4719,34 @@
           <t>copysign</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>"inline double __attribute__((__cdecl__)) copysign (double x</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> double y)"</t>
-        </is>
-      </c>
-      <c r="D76">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="E76" t="inlineStr"/>
+      <c r="B76">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1068-1074</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>inline double __attribute__((__cdecl__)) copysign (double x, double y)</t>
+        </is>
+      </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>"math.h"</t>
+          <t>math.h</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\math.h"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\math.h</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>"1068-1074"</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4779,20 +4756,15 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -4804,34 +4776,34 @@
           <t>copysignf</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>"inline float __attribute__((__cdecl__)) copysignf (float x</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> float y)"</t>
-        </is>
-      </c>
-      <c r="D77">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="E77" t="inlineStr"/>
+      <c r="B77">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1075-1081</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>inline float __attribute__((__cdecl__)) copysignf (float x, float y)</t>
+        </is>
+      </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>"math.h"</t>
+          <t>math.h</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\math.h"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\math.h</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>"1075-1081"</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4841,20 +4813,15 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -4866,29 +4833,29 @@
           <t>coshf</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>"inline float coshf(float _X)"</t>
-        </is>
-      </c>
-      <c r="C78">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D78" t="inlineStr"/>
+      <c r="B78">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>688</t>
+        </is>
+      </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>"math.h"</t>
+          <t>inline float coshf(float _X)</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\math.h"</t>
+          <t>math.h</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>688</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\math.h</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4916,12 +4883,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ctime,"static __inline char *__attribute__((__cdecl__)) ctime(const time_t *_Time)"</t>
+          <t>ctime</t>
         </is>
       </c>
       <c r="B79">
@@ -4931,22 +4897,22 @@
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
-          <t>"time.h"</t>
+          <t>236</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\time.h"</t>
+          <t>static __inline char *__attribute__((__cdecl__)) ctime(const time_t *_Time)</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>time.h</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\time.h</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4956,7 +4922,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4969,13 +4935,16 @@
           <t>1</t>
         </is>
       </c>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ctime_s,"static __inline errno_t __attribute__((__cdecl__)) ctime_s(char *_Buf,size_t _SizeInBytes,const time_t *_Time)"</t>
+          <t>ctime_s</t>
         </is>
       </c>
       <c r="B80">
@@ -4985,22 +4954,22 @@
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>"time.h"</t>
+          <t>237</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\time.h"</t>
+          <t>static __inline errno_t __attribute__((__cdecl__)) ctime_s(char *_Buf,size_t _SizeInBytes,const time_t *_Time)</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>time.h</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\time.h</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -5010,7 +4979,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -5023,8 +4992,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5032,34 +5004,34 @@
           <t>difftime</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>"static __inline double __attribute__((__cdecl__)) difftime(time_t _Time1</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>time_t _Time2)"</t>
-        </is>
-      </c>
-      <c r="D81">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="E81" t="inlineStr"/>
+      <c r="B81">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>static __inline double __attribute__((__cdecl__)) difftime(time_t _Time1,time_t _Time2)</t>
+        </is>
+      </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>"time.h"</t>
+          <t>time.h</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\time.h"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\time.h</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -5069,7 +5041,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5078,11 +5050,6 @@
         </is>
       </c>
       <c r="L81" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -5094,29 +5061,29 @@
           <t>expf</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>"inline float expf(float _X)"</t>
-        </is>
-      </c>
-      <c r="C82">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D82" t="inlineStr"/>
+      <c r="B82">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>718</t>
+        </is>
+      </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>"math.h"</t>
+          <t>inline float expf(float _X)</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\math.h"</t>
+          <t>math.h</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>718</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\math.h</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -5144,7 +5111,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5152,29 +5118,29 @@
           <t>fabs</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>"inline double __attribute__((__cdecl__)) fabs (double x)"</t>
-        </is>
-      </c>
-      <c r="C83">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D83" t="inlineStr"/>
+      <c r="B83">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>225-234</t>
+        </is>
+      </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>"math.h"</t>
+          <t>inline double __attribute__((__cdecl__)) fabs (double x)</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\math.h"</t>
+          <t>math.h</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>"225-234"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\math.h</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -5202,7 +5168,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5210,29 +5175,29 @@
           <t>fabsf</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>"inline float __attribute__((__cdecl__)) fabsf (float x)"</t>
-        </is>
-      </c>
-      <c r="C84">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D84" t="inlineStr"/>
+      <c r="B84">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>203-212</t>
+        </is>
+      </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>"math.h"</t>
+          <t>inline float __attribute__((__cdecl__)) fabsf (float x)</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\math.h"</t>
+          <t>math.h</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>"203-212"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\math.h</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -5260,7 +5225,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5268,29 +5232,29 @@
           <t>fabsl</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>"inline long double __attribute__((__cdecl__)) fabsl (long double x)"</t>
-        </is>
-      </c>
-      <c r="C85">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D85" t="inlineStr"/>
+      <c r="B85">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>214-223</t>
+        </is>
+      </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>"math.h"</t>
+          <t>inline long double __attribute__((__cdecl__)) fabsl (long double x)</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\math.h"</t>
+          <t>math.h</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>"214-223"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\math.h</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -5318,37 +5282,36 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>fprintf,"static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__((__format__ (gnu_printf, 2, 3))) __attribute__ ((__nonnull__ (2))) int fprintf (FILE *__stream, const char *__format</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ...)"</t>
-        </is>
-      </c>
-      <c r="C86">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D86" t="inlineStr"/>
+          <t>fprintf</t>
+        </is>
+      </c>
+      <c r="B86">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>355-364</t>
+        </is>
+      </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>"stdio.h"</t>
+          <t>static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__((__format__ (gnu_printf, 2, 3))) __attribute__ ((__nonnull__ (2))) int fprintf (FILE *__stream, const char *__format, ...)</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdio.h"</t>
+          <t>stdio.h</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>"355-364"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdio.h</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -5376,12 +5339,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>frexpf,"inline float frexpf(float _X,int *_Y)"</t>
+          <t>frexpf</t>
         </is>
       </c>
       <c r="B87">
@@ -5391,22 +5353,22 @@
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>"math.h"</t>
+          <t>736</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\math.h"</t>
+          <t>inline float frexpf(float _X,int *_Y)</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>736</t>
+          <t>math.h</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\math.h</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -5416,7 +5378,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -5429,38 +5391,41 @@
           <t>1</t>
         </is>
       </c>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>fscanf,"static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__((__format__ (gnu_scanf, 2, 3))) __attribute__ ((__nonnull__ (2))) int fscanf(FILE *__stream, const char *__format</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ...)"</t>
-        </is>
-      </c>
-      <c r="C88">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D88" t="inlineStr"/>
+          <t>fscanf</t>
+        </is>
+      </c>
+      <c r="B88">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>310-319</t>
+        </is>
+      </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>"stdio.h"</t>
+          <t>static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__((__format__ (gnu_scanf, 2, 3))) __attribute__ ((__nonnull__ (2))) int fscanf(FILE *__stream, const char *__format, ...)</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdio.h"</t>
+          <t>stdio.h</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>"310-319"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdio.h</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -5488,12 +5453,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ftime,"inline void __attribute__((__cdecl__)) ftime(struct timeb *_Tmb)"</t>
+          <t>ftime</t>
         </is>
       </c>
       <c r="B89">
@@ -5503,22 +5467,22 @@
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>"timeb.h"</t>
+          <t>108-110</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sys\timeb.h"</t>
+          <t>inline void __attribute__((__cdecl__)) ftime(struct timeb *_Tmb)</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>"108-110"</t>
+          <t>timeb.h</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sys\timeb.h</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -5528,7 +5492,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -5541,38 +5505,41 @@
           <t>1</t>
         </is>
       </c>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>fwide,"inline int __attribute__((__cdecl__)) fwide(FILE *_F</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>int _M)"</t>
-        </is>
-      </c>
-      <c r="C90">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D90" t="inlineStr"/>
+          <t>fwide</t>
+        </is>
+      </c>
+      <c r="B90">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1478</t>
+        </is>
+      </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>"wchar.h"</t>
+          <t>inline int __attribute__((__cdecl__)) fwide(FILE *_F,int _M)</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\wchar.h"</t>
+          <t>wchar.h</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>1478</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\wchar.h</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -5600,37 +5567,36 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>fwprintf,"static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__ ((__nonnull__ (2))) int fwprintf (FILE *__stream, const wchar_t *__format</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ...)"</t>
-        </is>
-      </c>
-      <c r="C91">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D91" t="inlineStr"/>
+          <t>fwprintf</t>
+        </is>
+      </c>
+      <c r="B91">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>599-608</t>
+        </is>
+      </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>"wchar.h"</t>
+          <t>static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__ ((__nonnull__ (2))) int fwprintf (FILE *__stream, const wchar_t *__format, ...)</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\wchar.h"</t>
+          <t>wchar.h</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>"599-608"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\wchar.h</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -5658,37 +5624,36 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>fwscanf,"static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__ ((__nonnull__ (2))) int fwscanf(FILE *__stream, const wchar_t *__format</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ...)"</t>
-        </is>
-      </c>
-      <c r="C92">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D92" t="inlineStr"/>
+          <t>fwscanf</t>
+        </is>
+      </c>
+      <c r="B92">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>563-572</t>
+        </is>
+      </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>"wchar.h"</t>
+          <t>static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__ ((__nonnull__ (2))) int fwscanf(FILE *__stream, const wchar_t *__format, ...)</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\wchar.h"</t>
+          <t>wchar.h</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>"563-572"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\wchar.h</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -5716,12 +5681,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>get_s,"template &lt;size_t __size&gt; inline char* __attribute__((__cdecl__)) get_s(char (&amp;_DstBuf)[__size])"</t>
+          <t>get_s</t>
         </is>
       </c>
       <c r="B93">
@@ -5731,22 +5695,22 @@
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>"stdio_s.h"</t>
+          <t>572</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\stdio_s.h"</t>
+          <t>template &lt;size_t __size&gt; inline char* __attribute__((__cdecl__)) get_s(char (&amp;_DstBuf)[__size])</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>572</t>
+          <t>stdio_s.h</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\stdio_s.h</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -5756,7 +5720,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -5769,13 +5733,16 @@
           <t>1</t>
         </is>
       </c>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>getenv_s,"template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) getenv_s(size_t * _ReturnSize, char (&amp;_Dest)[__size], const char * _VarName)"</t>
+          <t>getenv_s</t>
         </is>
       </c>
       <c r="B94">
@@ -5785,22 +5752,22 @@
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>"stdlib_s.h"</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\stdlib_s.h"</t>
+          <t>template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) getenv_s(size_t * _ReturnSize, char (&amp;_Dest)[__size], const char * _VarName)</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>stdlib_s.h</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\stdlib_s.h</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -5810,7 +5777,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -5823,8 +5790,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5832,29 +5802,29 @@
           <t>getwchar</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>"inline wint_t __attribute__((__cdecl__)) getwchar()"</t>
-        </is>
-      </c>
-      <c r="C95">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D95" t="inlineStr"/>
+      <c r="B95">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1238</t>
+        </is>
+      </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>"wchar.h"</t>
+          <t>inline wint_t __attribute__((__cdecl__)) getwchar()</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\wchar.h"</t>
+          <t>wchar.h</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>1238</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\wchar.h</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -5882,12 +5852,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>gmtime,"static __inline struct tm *__attribute__((__cdecl__)) gmtime(const time_t *_Time)"</t>
+          <t>gmtime</t>
         </is>
       </c>
       <c r="B96">
@@ -5897,22 +5866,22 @@
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>"time.h"</t>
+          <t>234</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\time.h"</t>
+          <t>static __inline struct tm *__attribute__((__cdecl__)) gmtime(const time_t *_Time)</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>time.h</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\time.h</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -5922,7 +5891,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -5935,13 +5904,16 @@
           <t>1</t>
         </is>
       </c>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>gmtime_s,"static __inline errno_t __attribute__((__cdecl__)) gmtime_s(struct tm *_Tm, const time_t *_Time)"</t>
+          <t>gmtime_s</t>
         </is>
       </c>
       <c r="B97">
@@ -5951,22 +5923,22 @@
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>"time.h"</t>
+          <t>235</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\time.h"</t>
+          <t>static __inline errno_t __attribute__((__cdecl__)) gmtime_s(struct tm *_Tm, const time_t *_Time)</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>time.h</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\time.h</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5976,7 +5948,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5989,8 +5961,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5998,34 +5973,34 @@
           <t>hypotf</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>"inline float __attribute__((__cdecl__)) hypotf (float x</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> float y)"</t>
-        </is>
-      </c>
-      <c r="D98">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="E98" t="inlineStr"/>
+      <c r="B98">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>inline float __attribute__((__cdecl__)) hypotf (float x, float y)</t>
+        </is>
+      </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>"math.h"</t>
+          <t>math.h</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\math.h"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\math.h</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>884</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -6035,7 +6010,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -6044,11 +6019,6 @@
         </is>
       </c>
       <c r="L98" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M98" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -6060,34 +6030,34 @@
           <t>ldexpf</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>"inline float __attribute__((__cdecl__)) ldexpf (float x</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> int expn)"</t>
-        </is>
-      </c>
-      <c r="D99">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="E99" t="inlineStr"/>
+      <c r="B99">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>inline float __attribute__((__cdecl__)) ldexpf (float x, int expn)</t>
+        </is>
+      </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>"math.h"</t>
+          <t>math.h</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\math.h"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\math.h</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -6097,7 +6067,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -6106,11 +6076,6 @@
         </is>
       </c>
       <c r="L99" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M99" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -6122,29 +6087,29 @@
           <t>llabs</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>"__extension__ inline long long __attribute__((__cdecl__)) llabs(long long _j)"</t>
-        </is>
-      </c>
-      <c r="C100">
+      <c r="B100">
         <f>0/3</f>
         <v/>
       </c>
-      <c r="D100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>"stdlib.h"</t>
+          <t>__extension__ inline long long __attribute__((__cdecl__)) llabs(long long _j)</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdlib.h"</t>
+          <t>stdlib.h</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdlib.h</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -6172,37 +6137,36 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>lltoa,"__extension__ inline char *__attribute__((__cdecl__)) lltoa (long long _n, char * _c</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> int _i)"</t>
-        </is>
-      </c>
-      <c r="C101">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D101" t="inlineStr"/>
+          <t>lltoa</t>
+        </is>
+      </c>
+      <c r="B101">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>749</t>
+        </is>
+      </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>"stdlib.h"</t>
+          <t>__extension__ inline char *__attribute__((__cdecl__)) lltoa (long long _n, char * _c, int _i)</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdlib.h"</t>
+          <t>stdlib.h</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>749</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdlib.h</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -6230,37 +6194,36 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>lltow,"__extension__ inline wchar_t *__attribute__((__cdecl__)) lltow (long long _n, wchar_t * _w</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> int _i)"</t>
-        </is>
-      </c>
-      <c r="C102">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D102" t="inlineStr"/>
+          <t>lltow</t>
+        </is>
+      </c>
+      <c r="B102">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>"stdlib.h"</t>
+          <t>__extension__ inline wchar_t *__attribute__((__cdecl__)) lltow (long long _n, wchar_t * _w, int _i)</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdlib.h"</t>
+          <t>stdlib.h</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>752</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdlib.h</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -6288,12 +6251,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>localtime,"static __inline struct tm *__attribute__((__cdecl__)) localtime(const time_t *_Time)"</t>
+          <t>localtime</t>
         </is>
       </c>
       <c r="B103">
@@ -6303,22 +6265,22 @@
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr">
         <is>
-          <t>"time.h"</t>
+          <t>232</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\time.h"</t>
+          <t>static __inline struct tm *__attribute__((__cdecl__)) localtime(const time_t *_Time)</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>time.h</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\time.h</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -6328,7 +6290,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -6341,13 +6303,16 @@
           <t>1</t>
         </is>
       </c>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>localtime_s,"static __inline errno_t __attribute__((__cdecl__)) localtime_s(struct tm *_Tm,const time_t *_Time)"</t>
+          <t>localtime_s</t>
         </is>
       </c>
       <c r="B104">
@@ -6357,22 +6322,22 @@
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
         <is>
-          <t>"time.h"</t>
+          <t>233</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\time.h"</t>
+          <t>static __inline errno_t __attribute__((__cdecl__)) localtime_s(struct tm *_Tm,const time_t *_Time)</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>time.h</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\time.h</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -6382,7 +6347,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -6395,13 +6360,16 @@
           <t>1</t>
         </is>
       </c>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>mbsinit,"inline int __attribute__((__cdecl__)) mbsinit(const mbstate_t *_P)"</t>
+          <t>mbsinit</t>
         </is>
       </c>
       <c r="B105">
@@ -6411,22 +6379,22 @@
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
-          <t>"wchar.h"</t>
+          <t>1480</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\wchar.h"</t>
+          <t>inline int __attribute__((__cdecl__)) mbsinit(const mbstate_t *_P)</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>1480</t>
+          <t>wchar.h</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\wchar.h</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -6436,7 +6404,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -6449,43 +6417,46 @@
           <t>1</t>
         </is>
       </c>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>mbsrtowcs_s,"template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) mbsrtowcs_s(size_t* _Retval, wchar_t (&amp;_Dst)[__size], const char** _PSrc</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> size_t _N</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> mbstate_t _State)"</t>
-        </is>
-      </c>
-      <c r="D106">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="E106" t="inlineStr"/>
+          <t>mbsrtowcs_s</t>
+        </is>
+      </c>
+      <c r="B106">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) mbsrtowcs_s(size_t* _Retval, wchar_t (&amp;_Dst)[__size], const char** _PSrc, size_t _N, mbstate_t _State)</t>
+        </is>
+      </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>"wchar_s.h"</t>
+          <t>wchar_s.h</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\wchar_s.h"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\wchar_s.h</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -6495,7 +6466,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -6504,11 +6475,6 @@
         </is>
       </c>
       <c r="L106" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M106" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -6517,32 +6483,32 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>mbstowcs_s,"template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) mbstowcs_s(size_t * _PtNumOfCharConverted, wchar_t (&amp;_Dest)[__size], const char * _Source</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> size_t _MaxCount)"</t>
-        </is>
-      </c>
-      <c r="C107">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D107" t="inlineStr"/>
+          <t>mbstowcs_s</t>
+        </is>
+      </c>
+      <c r="B107">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>"stdlib_s.h"</t>
+          <t>template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) mbstowcs_s(size_t * _PtNumOfCharConverted, wchar_t (&amp;_Dest)[__size], const char * _Source, size_t _MaxCount)</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\stdlib_s.h"</t>
+          <t>stdlib_s.h</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\stdlib_s.h</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -6570,12 +6536,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>mktime,"static __inline time_t __attribute__((__cdecl__)) mktime(struct tm *_Tm)"</t>
+          <t>mktime</t>
         </is>
       </c>
       <c r="B108">
@@ -6585,22 +6550,22 @@
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr">
         <is>
-          <t>"time.h"</t>
+          <t>238</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\time.h"</t>
+          <t>static __inline time_t __attribute__((__cdecl__)) mktime(struct tm *_Tm)</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>time.h</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\time.h</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -6610,7 +6575,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -6623,8 +6588,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -6632,34 +6600,34 @@
           <t>powf</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>"inline float powf(float _X</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>float _Y)"</t>
-        </is>
-      </c>
-      <c r="D109">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="E109" t="inlineStr"/>
+      <c r="B109">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>891</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>inline float powf(float _X,float _Y)</t>
+        </is>
+      </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>"math.h"</t>
+          <t>math.h</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\math.h"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\math.h</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>891</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -6669,7 +6637,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -6678,11 +6646,6 @@
         </is>
       </c>
       <c r="L109" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M109" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -6691,32 +6654,32 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>printf,"static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__((__format__ (gnu_printf, 1, 2))) __attribute__ ((__nonnull__ (1))) int printf (const char *__format</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ...)"</t>
-        </is>
-      </c>
-      <c r="C110">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D110" t="inlineStr"/>
+          <t>printf</t>
+        </is>
+      </c>
+      <c r="B110">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>366-375</t>
+        </is>
+      </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>"stdio.h"</t>
+          <t>static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__((__format__ (gnu_printf, 1, 2))) __attribute__ ((__nonnull__ (1))) int printf (const char *__format, ...)</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdio.h"</t>
+          <t>stdio.h</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>"366-375"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdio.h</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -6744,7 +6707,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -6752,29 +6714,29 @@
           <t>putwchar</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>"inline wint_t __attribute__((__cdecl__)) putwchar(wchar_t _C)"</t>
-        </is>
-      </c>
-      <c r="C111">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D111" t="inlineStr"/>
+      <c r="B111">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1239</t>
+        </is>
+      </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>"wchar.h"</t>
+          <t>inline wint_t __attribute__((__cdecl__)) putwchar(wchar_t _C)</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\wchar.h"</t>
+          <t>wchar.h</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>1239</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\wchar.h</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -6802,12 +6764,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>qMain,"int qMain( int argc, char ** argv )"</t>
+          <t>qMain</t>
         </is>
       </c>
       <c r="B112">
@@ -6817,76 +6778,79 @@
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr">
         <is>
-          <t>"main.cpp"</t>
+          <t>4-16</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>"C:\CocoImpactBased\new\textedit\textedit_v1\main.cpp"</t>
+          <t>int qMain( int argc, char ** argv )</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>"4-16"</t>
+          <t>main.cpp</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>C:\CocoImpactBased\new\textedit\textedit_v1\main.cpp</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>scanf,"static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__((__format__ (gnu_scanf, 1, 2))) __attribute__ ((__nonnull__ (1))) int scanf(const char *__format</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ...)"</t>
-        </is>
-      </c>
-      <c r="C113">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D113" t="inlineStr"/>
+          <t>scanf</t>
+        </is>
+      </c>
+      <c r="B113">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>299-308</t>
+        </is>
+      </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>"stdio.h"</t>
+          <t>static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__((__format__ (gnu_scanf, 1, 2))) __attribute__ ((__nonnull__ (1))) int scanf(const char *__format, ...)</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdio.h"</t>
+          <t>stdio.h</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>"299-308"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdio.h</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -6914,7 +6878,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -6922,29 +6885,29 @@
           <t>sinhf</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>"inline float sinhf(float _X)"</t>
-        </is>
-      </c>
-      <c r="C114">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D114" t="inlineStr"/>
+      <c r="B114">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>682</t>
+        </is>
+      </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>"math.h"</t>
+          <t>inline float sinhf(float _X)</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\math.h"</t>
+          <t>math.h</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>682</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\math.h</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -6972,37 +6935,36 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>snprintf,"static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__((__format__ (gnu_printf, 3, 4))) __attribute__ ((__nonnull__ (3))) int snprintf (char *__stream, size_t __n, const char *__format</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ...)"</t>
-        </is>
-      </c>
-      <c r="C115">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D115" t="inlineStr"/>
+          <t>snprintf</t>
+        </is>
+      </c>
+      <c r="B115">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>449-458</t>
+        </is>
+      </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>"stdio.h"</t>
+          <t>static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__((__format__ (gnu_printf, 3, 4))) __attribute__ ((__nonnull__ (3))) int snprintf (char *__stream, size_t __n, const char *__format, ...)</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdio.h"</t>
+          <t>stdio.h</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>"449-458"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdio.h</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -7030,37 +6992,36 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>snwprintf,"static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__ ((__nonnull__ (3))) int snwprintf (wchar_t *__stream, size_t __n, const wchar_t *__format</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ...)"</t>
-        </is>
-      </c>
-      <c r="C116">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D116" t="inlineStr"/>
+          <t>snwprintf</t>
+        </is>
+      </c>
+      <c r="B116">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>636-645</t>
+        </is>
+      </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>"wchar.h"</t>
+          <t>static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__ ((__nonnull__ (3))) int snwprintf (wchar_t *__stream, size_t __n, const wchar_t *__format, ...)</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\wchar.h"</t>
+          <t>wchar.h</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>"636-645"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\wchar.h</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -7088,37 +7049,36 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>sprintf,"static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__((__format__ (gnu_printf, 2, 3))) __attribute__ ((__nonnull__ (2))) int sprintf (char *__stream, const char *__format</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ...)"</t>
-        </is>
-      </c>
-      <c r="C117">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D117" t="inlineStr"/>
+          <t>sprintf</t>
+        </is>
+      </c>
+      <c r="B117">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>394-403</t>
+        </is>
+      </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>"stdio.h"</t>
+          <t>static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__((__format__ (gnu_printf, 2, 3))) __attribute__ ((__nonnull__ (2))) int sprintf (char *__stream, const char *__format, ...)</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdio.h"</t>
+          <t>stdio.h</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>"394-403"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdio.h</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -7146,37 +7106,36 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>sprintf_s,"template &lt;size_t __size&gt; inline int __attribute__((__cdecl__)) sprintf_s(char (&amp;_DstBuf)[__size], const char* _Format</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ...)"</t>
-        </is>
-      </c>
-      <c r="C118">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D118" t="inlineStr"/>
+          <t>sprintf_s</t>
+        </is>
+      </c>
+      <c r="B118">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>565</t>
+        </is>
+      </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>"stdio_s.h"</t>
+          <t>template &lt;size_t __size&gt; inline int __attribute__((__cdecl__)) sprintf_s(char (&amp;_DstBuf)[__size], const char* _Format, ...)</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\stdio_s.h"</t>
+          <t>stdio_s.h</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\stdio_s.h</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -7204,37 +7163,36 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>sscanf,"static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__((__format__ (gnu_scanf, 2, 3))) __attribute__ ((__nonnull__ (2))) int sscanf(const char *__source, const char *__format</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ...)"</t>
-        </is>
-      </c>
-      <c r="C119">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D119" t="inlineStr"/>
+          <t>sscanf</t>
+        </is>
+      </c>
+      <c r="B119">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>288-297</t>
+        </is>
+      </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>"stdio.h"</t>
+          <t>static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__((__format__ (gnu_scanf, 2, 3))) __attribute__ ((__nonnull__ (2))) int sscanf(const char *__source, const char *__format, ...)</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdio.h"</t>
+          <t>stdio.h</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>"288-297"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdio.h</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -7262,12 +7220,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>strcasecmp,"inline int __attribute__((__cdecl__)) strcasecmp (const char *__sz1, const char *__sz2)"</t>
+          <t>strcasecmp</t>
         </is>
       </c>
       <c r="B120">
@@ -7277,22 +7234,22 @@
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr">
         <is>
-          <t>"string.h"</t>
+          <t>117</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\string.h"</t>
+          <t>inline int __attribute__((__cdecl__)) strcasecmp (const char *__sz1, const char *__sz2)</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>string.h</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\string.h</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -7302,7 +7259,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -7315,13 +7272,16 @@
           <t>1</t>
         </is>
       </c>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>strcat_s,"template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) strcat_s(char (&amp;_Dest)[__size], const char * _Source)"</t>
+          <t>strcat_s</t>
         </is>
       </c>
       <c r="B121">
@@ -7331,22 +7291,22 @@
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr">
         <is>
-          <t>"string_s.h"</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\string_s.h"</t>
+          <t>template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) strcat_s(char (&amp;_Dest)[__size], const char * _Source)</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>string_s.h</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\string_s.h</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -7356,7 +7316,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -7369,13 +7329,16 @@
           <t>1</t>
         </is>
       </c>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>strcpy_s,"template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) strcpy_s(char (&amp;_Dest)[__size], const char * _Source)"</t>
+          <t>strcpy_s</t>
         </is>
       </c>
       <c r="B122">
@@ -7385,22 +7348,22 @@
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr">
         <is>
-          <t>"string_s.h"</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\string_s.h"</t>
+          <t>template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) strcpy_s(char (&amp;_Dest)[__size], const char * _Source)</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>string_s.h</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\string_s.h</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -7410,7 +7373,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -7423,38 +7386,41 @@
           <t>1</t>
         </is>
       </c>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>strncasecmp,"inline int __attribute__((__cdecl__)) strncasecmp (const char *__sz1, const char *__sz2</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> size_t __sizeMaxCompare)"</t>
-        </is>
-      </c>
-      <c r="C123">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D123" t="inlineStr"/>
+          <t>strncasecmp</t>
+        </is>
+      </c>
+      <c r="B123">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>"string.h"</t>
+          <t>inline int __attribute__((__cdecl__)) strncasecmp (const char *__sz1, const char *__sz2, size_t __sizeMaxCompare)</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\string.h"</t>
+          <t>string.h</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\string.h</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -7482,37 +7448,36 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>strncpy_s,"template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) strncpy_s(char (&amp;_Dest)[__size], const char * _Source</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> size_t _MaxCount)"</t>
-        </is>
-      </c>
-      <c r="C124">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D124" t="inlineStr"/>
+          <t>strncpy_s</t>
+        </is>
+      </c>
+      <c r="B124">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>"string_s.h"</t>
+          <t>template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) strncpy_s(char (&amp;_Dest)[__size], const char * _Source, size_t _MaxCount)</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\string_s.h"</t>
+          <t>string_s.h</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\string_s.h</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -7540,37 +7505,36 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>strnlen_s,"inline __attribute__((__always_inline__)) size_t __attribute__((__cdecl__)) strnlen_s(const char * _src</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> size_t _count)"</t>
-        </is>
-      </c>
-      <c r="C125">
+          <t>strnlen_s</t>
+        </is>
+      </c>
+      <c r="B125">
         <f>0/3</f>
         <v/>
       </c>
-      <c r="D125" t="inlineStr"/>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>46-48</t>
+        </is>
+      </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>"string_s.h"</t>
+          <t>inline __attribute__((__always_inline__)) size_t __attribute__((__cdecl__)) strnlen_s(const char * _src, size_t _count)</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\string_s.h"</t>
+          <t>string_s.h</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>"46-48"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\string_s.h</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -7598,12 +7562,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>strtod,"inline __attribute__((__cdecl__)) double __attribute__((__cdecl__)) __attribute__ ((__nothrow__)) strtod(const char * __restrict__ _Str,char ** __restrict__ _EndPtr)"</t>
+          <t>strtod</t>
         </is>
       </c>
       <c r="B126">
@@ -7613,22 +7576,22 @@
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr">
         <is>
-          <t>"stdlib.h"</t>
+          <t>483-488</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdlib.h"</t>
+          <t>inline __attribute__((__cdecl__)) double __attribute__((__cdecl__)) __attribute__ ((__nothrow__)) strtod(const char * __restrict__ _Str,char ** __restrict__ _EndPtr)</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>"483-488"</t>
+          <t>stdlib.h</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdlib.h</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -7638,26 +7601,29 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>strtof,"inline __attribute__((__cdecl__)) float __attribute__((__cdecl__)) __attribute__ ((__nothrow__)) strtof(const char * __restrict__ _Str,char ** __restrict__ _EndPtr)"</t>
+          <t>strtof</t>
         </is>
       </c>
       <c r="B127">
@@ -7667,22 +7633,22 @@
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr">
         <is>
-          <t>"stdlib.h"</t>
+          <t>490-495</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdlib.h"</t>
+          <t>inline __attribute__((__cdecl__)) float __attribute__((__cdecl__)) __attribute__ ((__nothrow__)) strtof(const char * __restrict__ _Str,char ** __restrict__ _EndPtr)</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>"490-495"</t>
+          <t>stdlib.h</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdlib.h</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -7692,51 +7658,54 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>swprintf,"static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__ ((__nonnull__ (3))) int swprintf (wchar_t *__stream, size_t __count, const wchar_t *__format</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ...)"</t>
-        </is>
-      </c>
-      <c r="C128">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D128" t="inlineStr"/>
+          <t>swprintf</t>
+        </is>
+      </c>
+      <c r="B128">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>32-43</t>
+        </is>
+      </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>"swprintf.inl"</t>
+          <t>static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__ ((__nonnull__ (3))) int swprintf (wchar_t *__stream, size_t __count, const wchar_t *__format, ...)</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\swprintf.inl"</t>
+          <t>swprintf.inl</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>"32-43"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\swprintf.inl</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -7764,37 +7733,36 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>swprintf,"static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__ ((__nonnull__ (2))) int swprintf (wchar_t *__stream, const wchar_t *__format</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ...)"</t>
-        </is>
-      </c>
-      <c r="C129">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D129" t="inlineStr"/>
+          <t>swprintf</t>
+        </is>
+      </c>
+      <c r="B129">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>60-71</t>
+        </is>
+      </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>"swprintf.inl"</t>
+          <t>static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__ ((__nonnull__ (2))) int swprintf (wchar_t *__stream, const wchar_t *__format, ...)</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\swprintf.inl"</t>
+          <t>swprintf.inl</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>"60-71"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\swprintf.inl</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -7822,37 +7790,36 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>swprintf_s,"template &lt;size_t __size&gt; inline int __attribute__((__cdecl__)) swprintf_s(wchar_t (&amp;_Dst)[__size], const wchar_t* _Format</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ...)"</t>
-        </is>
-      </c>
-      <c r="C130">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D130" t="inlineStr"/>
+          <t>swprintf_s</t>
+        </is>
+      </c>
+      <c r="B130">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>"wchar_s.h"</t>
+          <t>template &lt;size_t __size&gt; inline int __attribute__((__cdecl__)) swprintf_s(wchar_t (&amp;_Dst)[__size], const wchar_t* _Format, ...)</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\wchar_s.h"</t>
+          <t>wchar_s.h</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\wchar_s.h</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -7880,37 +7847,36 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>swscanf,"static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__ ((__nonnull__ (2))) int swscanf(const wchar_t *__source, const wchar_t *__format</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ...)"</t>
-        </is>
-      </c>
-      <c r="C131">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D131" t="inlineStr"/>
+          <t>swscanf</t>
+        </is>
+      </c>
+      <c r="B131">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>541-550</t>
+        </is>
+      </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>"wchar.h"</t>
+          <t>static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__ ((__nonnull__ (2))) int swscanf(const wchar_t *__source, const wchar_t *__format, ...)</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\wchar.h"</t>
+          <t>wchar.h</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>"541-550"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\wchar.h</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -7938,7 +7904,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -7946,29 +7911,29 @@
           <t>tanhf</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>"inline float tanhf(float _X)"</t>
-        </is>
-      </c>
-      <c r="C132">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D132" t="inlineStr"/>
+      <c r="B132">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>694</t>
+        </is>
+      </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>"math.h"</t>
+          <t>inline float tanhf(float _X)</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\math.h"</t>
+          <t>math.h</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>694</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\math.h</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -7996,12 +7961,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>time,"static __inline time_t __attribute__((__cdecl__)) time(time_t *_Time)"</t>
+          <t>time</t>
         </is>
       </c>
       <c r="B133">
@@ -8011,22 +7975,22 @@
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr">
         <is>
-          <t>"time.h"</t>
+          <t>230</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\time.h"</t>
+          <t>static __inline time_t __attribute__((__cdecl__)) time(time_t *_Time)</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>time.h</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\time.h</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -8036,7 +8000,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -8049,13 +8013,16 @@
           <t>1</t>
         </is>
       </c>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>tmpnam_s,"template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) tmpnam_s(char (&amp;_DstBuf)[__size])"</t>
+          <t>tmpnam_s</t>
         </is>
       </c>
       <c r="B134">
@@ -8065,22 +8032,22 @@
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr">
         <is>
-          <t>"stdio_s.h"</t>
+          <t>575</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\stdio_s.h"</t>
+          <t>template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) tmpnam_s(char (&amp;_DstBuf)[__size])</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>stdio_s.h</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\stdio_s.h</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -8090,7 +8057,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -8103,38 +8070,41 @@
           <t>1</t>
         </is>
       </c>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ulltoa,"__extension__ inline char *__attribute__((__cdecl__)) ulltoa (unsigned long long _n, char * _c</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> int _i)"</t>
-        </is>
-      </c>
-      <c r="C135">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D135" t="inlineStr"/>
+          <t>ulltoa</t>
+        </is>
+      </c>
+      <c r="B135">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>"stdlib.h"</t>
+          <t>__extension__ inline char *__attribute__((__cdecl__)) ulltoa (unsigned long long _n, char * _c, int _i)</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdlib.h"</t>
+          <t>stdlib.h</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdlib.h</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -8162,37 +8132,36 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ulltow,"__extension__ inline wchar_t *__attribute__((__cdecl__)) ulltow (unsigned long long _n, wchar_t * _w</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> int _i)"</t>
-        </is>
-      </c>
-      <c r="C136">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D136" t="inlineStr"/>
+          <t>ulltow</t>
+        </is>
+      </c>
+      <c r="B136">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>753</t>
+        </is>
+      </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>"stdlib.h"</t>
+          <t>__extension__ inline wchar_t *__attribute__((__cdecl__)) ulltow (unsigned long long _n, wchar_t * _w, int _i)</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdlib.h"</t>
+          <t>stdlib.h</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>753</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdlib.h</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -8220,37 +8189,36 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>vfprintf,"static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__((__format__ (gnu_printf, 2, 0))) __attribute__ ((__nonnull__ (2))) int vfprintf (FILE *__stream, const char *__format</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> __builtin_va_list __local_argv)"</t>
-        </is>
-      </c>
-      <c r="C137">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D137" t="inlineStr"/>
+          <t>vfprintf</t>
+        </is>
+      </c>
+      <c r="B137">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>407-412</t>
+        </is>
+      </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>"stdio.h"</t>
+          <t>static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__((__format__ (gnu_printf, 2, 0))) __attribute__ ((__nonnull__ (2))) int vfprintf (FILE *__stream, const char *__format, __builtin_va_list __local_argv)</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdio.h"</t>
+          <t>stdio.h</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>"407-412"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdio.h</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -8278,37 +8246,36 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>vfscanf,"static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__((__format__ (gnu_scanf, 2, 0))) __attribute__ ((__nonnull__ (2))) int vfscanf (FILE *__stream, const char *__format</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> __builtin_va_list __local_argv)"</t>
-        </is>
-      </c>
-      <c r="C138">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D138" t="inlineStr"/>
+          <t>vfscanf</t>
+        </is>
+      </c>
+      <c r="B138">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>341-346</t>
+        </is>
+      </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>"stdio.h"</t>
+          <t>static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__((__format__ (gnu_scanf, 2, 0))) __attribute__ ((__nonnull__ (2))) int vfscanf (FILE *__stream, const char *__format, __builtin_va_list __local_argv)</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdio.h"</t>
+          <t>stdio.h</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>"341-346"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdio.h</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -8336,37 +8303,36 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>vfwprintf,"static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__ ((__nonnull__ (2))) int vfwprintf (FILE *__stream, const wchar_t *__format</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> __builtin_va_list __local_argv)"</t>
-        </is>
-      </c>
-      <c r="C139">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D139" t="inlineStr"/>
+          <t>vfwprintf</t>
+        </is>
+      </c>
+      <c r="B139">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>621-626</t>
+        </is>
+      </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>"wchar.h"</t>
+          <t>static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__ ((__nonnull__ (2))) int vfwprintf (FILE *__stream, const wchar_t *__format, __builtin_va_list __local_argv)</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\wchar.h"</t>
+          <t>wchar.h</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>"621-626"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\wchar.h</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -8394,37 +8360,36 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>vfwscanf,"static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__ ((__nonnull__ (2))) int vfwscanf (FILE *__stream, const wchar_t *__format</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> __builtin_va_list __local_argv)"</t>
-        </is>
-      </c>
-      <c r="C140">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D140" t="inlineStr"/>
+          <t>vfwscanf</t>
+        </is>
+      </c>
+      <c r="B140">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>589-594</t>
+        </is>
+      </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>"wchar.h"</t>
+          <t>static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__ ((__nonnull__ (2))) int vfwscanf (FILE *__stream, const wchar_t *__format, __builtin_va_list __local_argv)</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\wchar.h"</t>
+          <t>wchar.h</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>"589-594"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\wchar.h</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -8452,37 +8417,36 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>vprintf,"static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__((__format__ (gnu_printf, 1, 0))) __attribute__ ((__nonnull__ (1))) int vprintf (const char *__format</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> __builtin_va_list __local_argv)"</t>
-        </is>
-      </c>
-      <c r="C141">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D141" t="inlineStr"/>
+          <t>vprintf</t>
+        </is>
+      </c>
+      <c r="B141">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>414-419</t>
+        </is>
+      </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>"stdio.h"</t>
+          <t>static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__((__format__ (gnu_printf, 1, 0))) __attribute__ ((__nonnull__ (1))) int vprintf (const char *__format, __builtin_va_list __local_argv)</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdio.h"</t>
+          <t>stdio.h</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>"414-419"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdio.h</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -8510,37 +8474,36 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>vscanf,"static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__((__format__ (gnu_scanf, 1, 0))) __attribute__ ((__nonnull__ (1))) int vscanf(const char *__format</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> __builtin_va_list __local_argv)"</t>
-        </is>
-      </c>
-      <c r="C142">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D142" t="inlineStr"/>
+          <t>vscanf</t>
+        </is>
+      </c>
+      <c r="B142">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>334-339</t>
+        </is>
+      </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>"stdio.h"</t>
+          <t>static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__((__format__ (gnu_scanf, 1, 0))) __attribute__ ((__nonnull__ (1))) int vscanf(const char *__format, __builtin_va_list __local_argv)</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdio.h"</t>
+          <t>stdio.h</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>"334-339"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdio.h</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -8568,37 +8531,36 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>vsnprintf,"static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__((__format__ (gnu_printf, 3, 0))) __attribute__ ((__nonnull__ (3))) int vsnprintf (char *__stream, size_t __n, const char *__format</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> __builtin_va_list __local_argv)"</t>
-        </is>
-      </c>
-      <c r="C143">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D143" t="inlineStr"/>
+          <t>vsnprintf</t>
+        </is>
+      </c>
+      <c r="B143">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>462-470</t>
+        </is>
+      </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>"stdio.h"</t>
+          <t>static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__((__format__ (gnu_printf, 3, 0))) __attribute__ ((__nonnull__ (3))) int vsnprintf (char *__stream, size_t __n, const char *__format, __builtin_va_list __local_argv)</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdio.h"</t>
+          <t>stdio.h</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>"462-470"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdio.h</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -8626,37 +8588,36 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>vsnprintf_s,"template &lt;size_t __size&gt; inline int __attribute__((__cdecl__)) vsnprintf_s(char (&amp;_DstBuf)[__size], size_t _MaxCount, const char* _Format</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> va_list _ArgList)"</t>
-        </is>
-      </c>
-      <c r="C144">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D144" t="inlineStr"/>
+          <t>vsnprintf_s</t>
+        </is>
+      </c>
+      <c r="B144">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>562</t>
+        </is>
+      </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>"stdio_s.h"</t>
+          <t>template &lt;size_t __size&gt; inline int __attribute__((__cdecl__)) vsnprintf_s(char (&amp;_DstBuf)[__size], size_t _MaxCount, const char* _Format, va_list _ArgList)</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\stdio_s.h"</t>
+          <t>stdio_s.h</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\stdio_s.h</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -8684,37 +8645,36 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>vsnwprintf,"static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__ ((__nonnull__ (3))) int vsnwprintf (wchar_t *__stream, size_t __n, const wchar_t *__format</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> __builtin_va_list __local_argv)"</t>
-        </is>
-      </c>
-      <c r="C145">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D145" t="inlineStr"/>
+          <t>vsnwprintf</t>
+        </is>
+      </c>
+      <c r="B145">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>647-652</t>
+        </is>
+      </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>"wchar.h"</t>
+          <t>static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__ ((__nonnull__ (3))) int vsnwprintf (wchar_t *__stream, size_t __n, const wchar_t *__format, __builtin_va_list __local_argv)</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\wchar.h"</t>
+          <t>wchar.h</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>"647-652"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\wchar.h</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -8742,37 +8702,36 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>vsprintf,"static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__((__format__ (gnu_printf, 2, 0))) __attribute__ ((__nonnull__ (2))) int vsprintf (char *__stream, const char *__format</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> __builtin_va_list __local_argv)"</t>
-        </is>
-      </c>
-      <c r="C146">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D146" t="inlineStr"/>
+          <t>vsprintf</t>
+        </is>
+      </c>
+      <c r="B146">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>421-434</t>
+        </is>
+      </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>"stdio.h"</t>
+          <t>static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__((__format__ (gnu_printf, 2, 0))) __attribute__ ((__nonnull__ (2))) int vsprintf (char *__stream, const char *__format, __builtin_va_list __local_argv)</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdio.h"</t>
+          <t>stdio.h</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>"421-434"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdio.h</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -8800,37 +8759,36 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>vsprintf_s,"template &lt;size_t __size&gt; inline int __attribute__((__cdecl__)) vsprintf_s(char (&amp;_DstBuf)[__size], const char* _Format</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> va_list _ArgList)"</t>
-        </is>
-      </c>
-      <c r="C147">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D147" t="inlineStr"/>
+          <t>vsprintf_s</t>
+        </is>
+      </c>
+      <c r="B147">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>564</t>
+        </is>
+      </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>"stdio_s.h"</t>
+          <t>template &lt;size_t __size&gt; inline int __attribute__((__cdecl__)) vsprintf_s(char (&amp;_DstBuf)[__size], const char* _Format, va_list _ArgList)</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\stdio_s.h"</t>
+          <t>stdio_s.h</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>564</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\stdio_s.h</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -8858,37 +8816,36 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>vsscanf,"static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__((__format__ (gnu_scanf, 2, 0))) __attribute__ ((__nonnull__ (2))) int vsscanf (const char *__source, const char *__format</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> __builtin_va_list __local_argv)"</t>
-        </is>
-      </c>
-      <c r="C148">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D148" t="inlineStr"/>
+          <t>vsscanf</t>
+        </is>
+      </c>
+      <c r="B148">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>327-332</t>
+        </is>
+      </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>"stdio.h"</t>
+          <t>static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__((__format__ (gnu_scanf, 2, 0))) __attribute__ ((__nonnull__ (2))) int vsscanf (const char *__source, const char *__format, __builtin_va_list __local_argv)</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdio.h"</t>
+          <t>stdio.h</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>"327-332"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdio.h</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -8916,37 +8873,36 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>vswprintf,"static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__ ((__nonnull__ (3))) int vswprintf (wchar_t *__stream, size_t __count, const wchar_t *__format</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> __builtin_va_list __local_argv)"</t>
-        </is>
-      </c>
-      <c r="C149">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D149" t="inlineStr"/>
+          <t>vswprintf</t>
+        </is>
+      </c>
+      <c r="B149">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>25-30</t>
+        </is>
+      </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>"swprintf.inl"</t>
+          <t>static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__ ((__nonnull__ (3))) int vswprintf (wchar_t *__stream, size_t __count, const wchar_t *__format, __builtin_va_list __local_argv)</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\swprintf.inl"</t>
+          <t>swprintf.inl</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>"25-30"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\swprintf.inl</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -8974,37 +8930,36 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>vswprintf,"static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__ ((__nonnull__ (2))) int vswprintf (wchar_t *__stream, const wchar_t *__format</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> __builtin_va_list __local_argv)"</t>
-        </is>
-      </c>
-      <c r="C150">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D150" t="inlineStr"/>
+          <t>vswprintf</t>
+        </is>
+      </c>
+      <c r="B150">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>49-58</t>
+        </is>
+      </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>"swprintf.inl"</t>
+          <t>static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__ ((__nonnull__ (2))) int vswprintf (wchar_t *__stream, const wchar_t *__format, __builtin_va_list __local_argv)</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\swprintf.inl"</t>
+          <t>swprintf.inl</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>"49-58"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\swprintf.inl</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -9032,37 +8987,36 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>vswprintf_s,"template &lt;size_t __size&gt; inline int __attribute__((__cdecl__)) vswprintf_s(wchar_t (&amp;_Dst)[__size], const wchar_t* _Format</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> va_list _ArgList)"</t>
-        </is>
-      </c>
-      <c r="C151">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D151" t="inlineStr"/>
+          <t>vswprintf_s</t>
+        </is>
+      </c>
+      <c r="B151">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>"wchar_s.h"</t>
+          <t>template &lt;size_t __size&gt; inline int __attribute__((__cdecl__)) vswprintf_s(wchar_t (&amp;_Dst)[__size], const wchar_t* _Format, va_list _ArgList)</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\wchar_s.h"</t>
+          <t>wchar_s.h</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\wchar_s.h</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -9090,37 +9044,36 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>vswscanf,"static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__ ((__nonnull__ (2))) int vswscanf (const wchar_t *__source, const wchar_t *__format</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> __builtin_va_list __local_argv)"</t>
-        </is>
-      </c>
-      <c r="C152">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D152" t="inlineStr"/>
+          <t>vswscanf</t>
+        </is>
+      </c>
+      <c r="B152">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>575-580</t>
+        </is>
+      </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>"wchar.h"</t>
+          <t>static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__ ((__nonnull__ (2))) int vswscanf (const wchar_t *__source, const wchar_t *__format, __builtin_va_list __local_argv)</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\wchar.h"</t>
+          <t>wchar.h</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>"575-580"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\wchar.h</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -9148,37 +9101,36 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>vwprintf,"static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__ ((__nonnull__ (1))) int vwprintf (const wchar_t *__format</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> __builtin_va_list __local_argv)"</t>
-        </is>
-      </c>
-      <c r="C153">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D153" t="inlineStr"/>
+          <t>vwprintf</t>
+        </is>
+      </c>
+      <c r="B153">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>628-633</t>
+        </is>
+      </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>"wchar.h"</t>
+          <t>static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__ ((__nonnull__ (1))) int vwprintf (const wchar_t *__format, __builtin_va_list __local_argv)</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\wchar.h"</t>
+          <t>wchar.h</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>"628-633"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\wchar.h</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -9206,37 +9158,36 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>vwscanf,"static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__ ((__nonnull__ (1))) int vwscanf(const wchar_t *__format</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> __builtin_va_list __local_argv)"</t>
-        </is>
-      </c>
-      <c r="C154">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D154" t="inlineStr"/>
+          <t>vwscanf</t>
+        </is>
+      </c>
+      <c r="B154">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>582-587</t>
+        </is>
+      </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>"wchar.h"</t>
+          <t>static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__ ((__nonnull__ (1))) int vwscanf(const wchar_t *__format, __builtin_va_list __local_argv)</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\wchar.h"</t>
+          <t>wchar.h</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>"582-587"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\wchar.h</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -9264,42 +9215,41 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>wcrtomb_s,"template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) wcrtomb_s(size_t* _Retval, char (&amp;_Dst)[__size]</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> wchar_t _Ch</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> mbstate_t _State)"</t>
-        </is>
-      </c>
-      <c r="D155">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="E155" t="inlineStr"/>
+          <t>wcrtomb_s</t>
+        </is>
+      </c>
+      <c r="B155">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) wcrtomb_s(size_t* _Retval, char (&amp;_Dst)[__size], wchar_t _Ch, mbstate_t _State)</t>
+        </is>
+      </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>"wchar_s.h"</t>
+          <t>wchar_s.h</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\wchar_s.h"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\wchar_s.h</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -9309,7 +9259,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -9318,11 +9268,6 @@
         </is>
       </c>
       <c r="L155" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M155" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -9331,7 +9276,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>wcscat_s,"template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) wcscat_s(wchar_t (&amp;_Dest)[__size], const wchar_t * _Source)"</t>
+          <t>wcscat_s</t>
         </is>
       </c>
       <c r="B156">
@@ -9341,22 +9286,22 @@
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr">
         <is>
-          <t>"wchar_s.h"</t>
+          <t>310</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\wchar_s.h"</t>
+          <t>template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) wcscat_s(wchar_t (&amp;_Dest)[__size], const wchar_t * _Source)</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>wchar_s.h</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\wchar_s.h</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -9366,7 +9311,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -9379,13 +9324,16 @@
           <t>1</t>
         </is>
       </c>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>wcscpy_s,"template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) wcscpy_s(wchar_t (&amp;_Dest)[__size], const wchar_t * _Source)"</t>
+          <t>wcscpy_s</t>
         </is>
       </c>
       <c r="B157">
@@ -9395,22 +9343,22 @@
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr">
         <is>
-          <t>"wchar_s.h"</t>
+          <t>312</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\wchar_s.h"</t>
+          <t>template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) wcscpy_s(wchar_t (&amp;_Dest)[__size], const wchar_t * _Source)</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>wchar_s.h</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\wchar_s.h</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -9420,7 +9368,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -9433,38 +9381,41 @@
           <t>1</t>
         </is>
       </c>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>wcsnlen_s,"inline __attribute__((__always_inline__)) size_t __attribute__((__cdecl__)) wcsnlen_s(const wchar_t * _src</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> size_t _count)"</t>
-        </is>
-      </c>
-      <c r="C158">
+          <t>wcsnlen_s</t>
+        </is>
+      </c>
+      <c r="B158">
         <f>0/3</f>
         <v/>
       </c>
-      <c r="D158" t="inlineStr"/>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>322-324</t>
+        </is>
+      </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>"wchar_s.h"</t>
+          <t>inline __attribute__((__always_inline__)) size_t __attribute__((__cdecl__)) wcsnlen_s(const wchar_t * _src, size_t _count)</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\wchar_s.h"</t>
+          <t>wchar_s.h</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>"322-324"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\wchar_s.h</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -9492,42 +9443,41 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>wcsrtombs_s,"template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) wcsrtombs_s(size_t _Retval, char (&amp;_Dst)[__size], const wchar_t** _Src</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> size_t _Size</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> mbstate_t _State)"</t>
-        </is>
-      </c>
-      <c r="D159">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="E159" t="inlineStr"/>
+          <t>wcsrtombs_s</t>
+        </is>
+      </c>
+      <c r="B159">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) wcsrtombs_s(size_t _Retval, char (&amp;_Dst)[__size], const wchar_t** _Src, size_t _Size, mbstate_t _State)</t>
+        </is>
+      </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>"wchar_s.h"</t>
+          <t>wchar_s.h</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\wchar_s.h"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\wchar_s.h</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -9537,7 +9487,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -9546,11 +9496,6 @@
         </is>
       </c>
       <c r="L159" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M159" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -9559,7 +9504,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>wcstod,"inline __attribute__((__cdecl__)) double __attribute__((__cdecl__)) wcstod(const wchar_t * __restrict__ _Str,wchar_t ** __restrict__ _EndPtr)"</t>
+          <t>wcstod</t>
         </is>
       </c>
       <c r="B160">
@@ -9569,22 +9514,22 @@
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr">
         <is>
-          <t>"stdlib.h"</t>
+          <t>561-564</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdlib.h"</t>
+          <t>inline __attribute__((__cdecl__)) double __attribute__((__cdecl__)) wcstod(const wchar_t * __restrict__ _Str,wchar_t ** __restrict__ _EndPtr)</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>"561-564"</t>
+          <t>stdlib.h</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdlib.h</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -9594,7 +9539,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -9607,13 +9552,16 @@
           <t>1</t>
         </is>
       </c>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>wcstof,"inline __attribute__((__cdecl__)) float __attribute__((__cdecl__)) wcstof(const wchar_t * __restrict__ _Str,wchar_t ** __restrict__ _EndPtr)"</t>
+          <t>wcstof</t>
         </is>
       </c>
       <c r="B161">
@@ -9623,22 +9571,22 @@
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr">
         <is>
-          <t>"stdlib.h"</t>
+          <t>565-568</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdlib.h"</t>
+          <t>inline __attribute__((__cdecl__)) float __attribute__((__cdecl__)) wcstof(const wchar_t * __restrict__ _Str,wchar_t ** __restrict__ _EndPtr)</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>"565-568"</t>
+          <t>stdlib.h</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdlib.h</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -9648,7 +9596,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -9661,38 +9609,41 @@
           <t>1</t>
         </is>
       </c>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>wcstombs_s,"template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) wcstombs_s(size_t* _PtNumOfCharConverted, char (&amp;_Dst)[__size], const wchar_t* _Src</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> size_t _MaxCountInBytes)"</t>
-        </is>
-      </c>
-      <c r="C162">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D162" t="inlineStr"/>
+          <t>wcstombs_s</t>
+        </is>
+      </c>
+      <c r="B162">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>"stdlib_s.h"</t>
+          <t>template &lt;size_t __size&gt; inline errno_t __attribute__((__cdecl__)) wcstombs_s(size_t* _PtNumOfCharConverted, char (&amp;_Dst)[__size], const wchar_t* _Src, size_t _MaxCountInBytes)</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\stdlib_s.h"</t>
+          <t>stdlib_s.h</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\sec_api\stdlib_s.h</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -9720,42 +9671,41 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>wmemchr,"inline wchar_t *__attribute__((__cdecl__)) wmemchr(const wchar_t *_S</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>wchar_t _C</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>size_t _N)"</t>
-        </is>
-      </c>
-      <c r="D163">
+          <t>wmemchr</t>
+        </is>
+      </c>
+      <c r="B163">
         <f>0/9</f>
         <v/>
       </c>
-      <c r="E163" t="inlineStr"/>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>1482-1489</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>inline wchar_t *__attribute__((__cdecl__)) wmemchr(const wchar_t *_S,wchar_t _C,size_t _N)</t>
+        </is>
+      </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>"wchar.h"</t>
+          <t>wchar.h</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\wchar.h"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\wchar.h</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>"1482-1489"</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -9765,20 +9715,15 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="M163" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -9787,32 +9732,32 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>wmemcmp,"inline int __attribute__((__cdecl__)) wmemcmp(const wchar_t *_S1,const wchar_t *_S2</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>size_t _N)"</t>
-        </is>
-      </c>
-      <c r="C164">
+          <t>wmemcmp</t>
+        </is>
+      </c>
+      <c r="B164">
         <f>0/12</f>
         <v/>
       </c>
-      <c r="D164" t="inlineStr"/>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>1490-1499</t>
+        </is>
+      </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>"wchar.h"</t>
+          <t>inline int __attribute__((__cdecl__)) wmemcmp(const wchar_t *_S1,const wchar_t *_S2,size_t _N)</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\wchar.h"</t>
+          <t>wchar.h</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>"1490-1499"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\wchar.h</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -9840,37 +9785,36 @@
           <t>5</t>
         </is>
       </c>
-      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>wmemcpy,"inline wchar_t *__attribute__((__cdecl__)) wmemcpy(wchar_t * __restrict__ _S1,const wchar_t * __restrict__ _S2</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>size_t _N)"</t>
-        </is>
-      </c>
-      <c r="C165">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D165" t="inlineStr"/>
+          <t>wmemcpy</t>
+        </is>
+      </c>
+      <c r="B165">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>1500-1503</t>
+        </is>
+      </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>"wchar.h"</t>
+          <t>inline wchar_t *__attribute__((__cdecl__)) wmemcpy(wchar_t * __restrict__ _S1,const wchar_t * __restrict__ _S2,size_t _N)</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\wchar.h"</t>
+          <t>wchar.h</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>"1500-1503"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\wchar.h</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -9898,37 +9842,36 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>wmemmove,"inline wchar_t *__attribute__((__cdecl__)) wmemmove(wchar_t *_S1,const wchar_t *_S2</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>size_t _N)"</t>
-        </is>
-      </c>
-      <c r="C166">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D166" t="inlineStr"/>
+          <t>wmemmove</t>
+        </is>
+      </c>
+      <c r="B166">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>1504</t>
+        </is>
+      </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>"wchar.h"</t>
+          <t>inline wchar_t *__attribute__((__cdecl__)) wmemmove(wchar_t *_S1,const wchar_t *_S2,size_t _N)</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\wchar.h"</t>
+          <t>wchar.h</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>1504</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\wchar.h</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -9956,42 +9899,41 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>wmemset,"inline wchar_t *__attribute__((__cdecl__)) wmemset(wchar_t *_S</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>wchar_t _C</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>size_t _N)"</t>
-        </is>
-      </c>
-      <c r="D167">
+          <t>wmemset</t>
+        </is>
+      </c>
+      <c r="B167">
         <f>0/4</f>
         <v/>
       </c>
-      <c r="E167" t="inlineStr"/>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>1505-1511</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>inline wchar_t *__attribute__((__cdecl__)) wmemset(wchar_t *_S,wchar_t _C,size_t _N)</t>
+        </is>
+      </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>"wchar.h"</t>
+          <t>wchar.h</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\wchar.h"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\wchar.h</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>"1505-1511"</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -10001,7 +9943,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -10010,11 +9952,6 @@
         </is>
       </c>
       <c r="L167" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M167" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -10023,32 +9960,32 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>wprintf,"static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__ ((__nonnull__ (1))) int wprintf (const wchar_t *__format</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ...)"</t>
-        </is>
-      </c>
-      <c r="C168">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D168" t="inlineStr"/>
+          <t>wprintf</t>
+        </is>
+      </c>
+      <c r="B168">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>610-619</t>
+        </is>
+      </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>"wchar.h"</t>
+          <t>static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__ ((__nonnull__ (1))) int wprintf (const wchar_t *__format, ...)</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\wchar.h"</t>
+          <t>wchar.h</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>"610-619"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\wchar.h</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -10076,37 +10013,36 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>wscanf,"static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__ ((__nonnull__ (1))) int wscanf(const wchar_t *__format</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ...)"</t>
-        </is>
-      </c>
-      <c r="C169">
-        <f>0/1</f>
-        <v/>
-      </c>
-      <c r="D169" t="inlineStr"/>
+          <t>wscanf</t>
+        </is>
+      </c>
+      <c r="B169">
+        <f>0/1</f>
+        <v/>
+      </c>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>552-561</t>
+        </is>
+      </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>"wchar.h"</t>
+          <t>static __attribute__ ((__unused__)) __inline__ __attribute__((__cdecl__)) __attribute__ ((__nonnull__ (1))) int wscanf(const wchar_t *__format, ...)</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\wchar.h"</t>
+          <t>wchar.h</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>"552-561"</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\wchar.h</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -10134,12 +10070,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>wtoll,"__extension__ inline long long __attribute__((__cdecl__)) wtoll (const wchar_t * _w)"</t>
+          <t>wtoll</t>
         </is>
       </c>
       <c r="B170">
@@ -10149,22 +10084,22 @@
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr">
         <is>
-          <t>"stdlib.h"</t>
+          <t>751</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>"C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdlib.h"</t>
+          <t>__extension__ inline long long __attribute__((__cdecl__)) wtoll (const wchar_t * _w)</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>751</t>
+          <t>stdlib.h</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>C:\MinGw11\mingw64\x86_64-w64-mingw32\include\stdlib.h</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -10174,7 +10109,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -10187,8 +10122,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
